--- a/math.xlsx
+++ b/math.xlsx
@@ -7,16 +7,368 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Model" sheetId="4" r:id="rId1"/>
+    <sheet name="Calculations" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Xavier van Heule</author>
+  </authors>
+  <commentList>
+    <comment ref="W3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Chance of fizzle each tick</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Expected time until fizzling in ticks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The growth factor of the fizzling chance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gained experience per element</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Expected time until fizzling in seconds</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the LIFE level (1 - 10)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the amount of LIFE charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the potency of the LIFE charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The growth factor for the experience gain</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the AIR level (1 - 10)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the amount of AIR charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the potency of the AIR charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Experience multiplier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the FIRE level (1 - 10)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the amount of FIRE charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the potency of the FIRE charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Experience coefficient</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the DEATH level (1 - 10)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the amount of DEATH charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set thepotency of the DEATH charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the EARTH level (1 - 10)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the amount of EARTH charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the potency of the EARTH charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the WATER level (1 - 10)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set the amount of WATER charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Set thepotency of the WATER charges</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
   <si>
     <t>Min</t>
   </si>
@@ -42,26 +394,190 @@
     <t>LIFE</t>
   </si>
   <si>
-    <t>Angle</t>
-  </si>
-  <si>
-    <t>minX</t>
-  </si>
-  <si>
-    <t>minY</t>
-  </si>
-  <si>
-    <t>MaxX</t>
-  </si>
-  <si>
-    <t>MaxY</t>
+    <t>angle [°]</t>
+  </si>
+  <si>
+    <t>angle [rad]</t>
+  </si>
+  <si>
+    <t>Scaled</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Point 1</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>Intercept 1</t>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>da_el</t>
+  </si>
+  <si>
+    <t>a [rad]</t>
+  </si>
+  <si>
+    <t>da_pt</t>
+  </si>
+  <si>
+    <t>a [°]</t>
+  </si>
+  <si>
+    <t>El1</t>
+  </si>
+  <si>
+    <t>Target 1</t>
+  </si>
+  <si>
+    <t>El2</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>f_el1</t>
+  </si>
+  <si>
+    <t>f_el2</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Instability</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Instability curve</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Exp multiplier</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Experience curve</t>
+  </si>
+  <si>
+    <t>Lambda_E</t>
+  </si>
+  <si>
+    <t>Ticks</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>ticks</t>
+  </si>
+  <si>
+    <t>Potency</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Charges</t>
+  </si>
+  <si>
+    <t>Lambda_F</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Fizzle point</t>
+  </si>
+  <si>
+    <t>Experience point</t>
+  </si>
+  <si>
+    <t>(Fizzle growth factor)</t>
+  </si>
+  <si>
+    <t>(Experience growth factor)</t>
+  </si>
+  <si>
+    <t>Exp base</t>
+  </si>
+  <si>
+    <t>(Experience multiplier</t>
+  </si>
+  <si>
+    <t>Configuration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +585,126 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -86,15 +712,350 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="5" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="3" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Comma 2" xfId="6"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -122,7 +1083,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.1302691650561577E-2"/>
+          <c:y val="3.2337962962962964E-2"/>
+          <c:w val="0.9373946166988768"/>
+          <c:h val="0.93532407407407403"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -130,35 +1101,54 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Inner</c:v>
+            <c:strRef>
+              <c:f>Model!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$10</c:f>
+              <c:f>Model!$B$47:$B$53</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.86602540378443871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1257422745431001E-17</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>-0.86602540378443871</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>-0.8660254037844386</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.83772268236293E-16</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.86602540378443837</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.1257422745431001E-17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.83772268236293E-16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.8660254037844386</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.86602540378443871</c:v>
                 </c:pt>
               </c:numCache>
@@ -166,94 +1156,1028 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$10</c:f>
+              <c:f>Model!$C$47:$C$53</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.49999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.50000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-0.50000000000000044</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.50000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.49999999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83E0-4A8E-BD70-5CAF97D92C16}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Outer</c:v>
+            <c:strRef>
+              <c:f>Model!$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$10</c:f>
+              <c:f>Model!$D$47:$D$53</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-8.6602540378443873</c:v>
+                  <c:v>21.650635094610969</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6602540378443837</c:v>
+                  <c:v>1.531435568635775E-15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1257422745431001E-16</c:v>
+                  <c:v>-21.650635094610969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.83772268236293E-15</c:v>
+                  <c:v>-21.650635094610966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.6602540378443855</c:v>
+                  <c:v>-4.594306705907325E-15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.6602540378443873</c:v>
+                  <c:v>21.650635094610958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.650635094610969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$10</c:f>
+              <c:f>Model!$E$47:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12.499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-12.500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12.500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-83E0-4A8E-BD70-5CAF97D92C16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$F$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Level</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$F$47:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10.825317547305485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1886134118146501E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-19.48557158514987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.825317547305483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.756584023544395E-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.155444566227672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.825317547305485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$G$47:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.2499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.2500000000000018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.7500000000000071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2499999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-83E0-4A8E-BD70-5CAF97D92C16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LIFE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$B$57:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.25317547305485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$C$57:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.499999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-83E0-4A8E-BD70-5CAF97D92C16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AIR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-83E0-4A8E-BD70-5CAF97D92C16}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$B$59:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6571778431788751E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$C$59:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-83E0-4A8E-BD70-5CAF97D92C16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FIRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$B$61:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-108.25317547305485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$C$61:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.499999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-83E0-4A8E-BD70-5CAF97D92C16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DEATH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$B$63:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-108.25317547305482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$C$63:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-62.500000000000014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-83E0-4A8E-BD70-5CAF97D92C16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EARTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$B$65:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.2971533529536625E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$C$65:$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-83E0-4A8E-BD70-5CAF97D92C16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WATER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$B$67:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.2531754730548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$C$67:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-62.500000000000057</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-83E0-4A8E-BD70-5CAF97D92C16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$A$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$B$69:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-90.93266739736606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$C$69:$C$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.499999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-83E0-4A8E-BD70-5CAF97D92C16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$F$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Point 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-18.186533479473212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.4999999999999982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-83E0-4A8E-BD70-5CAF97D92C16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$G$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intercept 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.9999999999999991</c:v>
+                  <c:v>-15.860348964656872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.9244186046511613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-83E0-4A8E-BD70-5CAF97D92C16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="64595072"/>
+        <c:axId val="97312064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="64595072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="-30"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97312064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="97312064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="-30"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64595072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Experience on cast</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2874074074074077E-2"/>
+          <c:y val="0.16670039682539681"/>
+          <c:w val="0.88933166666666663"/>
+          <c:h val="0.70704722222222216"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Point</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$S$47:$S$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.0000000000000044</c:v>
+                  <c:v>2.396336441245893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.0000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9999999999999991</c:v>
+                  <c:v>2.396336441245893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$T$47:$T$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.308390039906666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.308390039906666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -268,46 +2192,821 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="62270848"/>
-        <c:axId val="62270272"/>
+        <c:axId val="97311488"/>
+        <c:axId val="97310912"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$N$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$L$46:$L$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$N$46:$N$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5162581964040491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.126924692201818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.918177931828211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.967995396436066</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.346934028736655</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.118836390597359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.341469620859044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.067103588277845</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.343034025940092</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.212055882855765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66.712891630192047</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.880578808779774</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72.746820696598746</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.340303605839352</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>77.686983985157028</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.810348200534463</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.731647594726525</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83.470111177841346</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85.043138077736486</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>86.466471676338728</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.754357174701809</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88.919684163766604</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>89.974115627719613</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90.928204671058751</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>91.791500137610115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Model!$M$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$L$46:$L$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$M$46:$M$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="97311488"/>
+        <c:axId val="97310912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62270848"/>
+        <c:axId val="97311488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62270272"/>
+        <c:crossAx val="97310912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62270272"/>
+        <c:axId val="97310912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62270848"/>
+        <c:crossAx val="97311488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> time until fizzle</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2874074074074077E-2"/>
+          <c:y val="0.14654166666666665"/>
+          <c:w val="0.88933166666666663"/>
+          <c:h val="0.72720595238095243"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Point</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$S$53:$S$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.396336441245893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.396336441245893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$T$53:$T$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20.890193662366794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.890193662366794</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="97044160"/>
+        <c:axId val="97305152"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time until fizzle</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Model!$L$46:$L$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Model!$Q$46:$Q$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>500000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.025004166668111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.025008333332931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.69167916666493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.52501666666226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.025020833324666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3583583333183498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1678863094999929</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2750333332977997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5805930555049201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0250416665972493</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5705003786954617</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1917166665466592</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8712080126679425</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5964869045713472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3583958330989567</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1500666663822283</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9662473035803916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8028527773727889</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.656658113558771</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5250833327777764</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4060398803092595</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2978189386545038</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1990088759666735</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1084333323733446</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0251041655816087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="97044160"/>
+        <c:axId val="97305152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="97044160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97305152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="97305152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97044160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -324,21 +3023,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>475575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>56474</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8BEFA9B-A9EF-470C-99B1-444DB63A8217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -352,7 +3059,400 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86362</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>157800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Min</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>Max</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>Real</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>0.86602540378443871</v>
+          </cell>
+          <cell r="C16">
+            <v>0.49999999999999994</v>
+          </cell>
+          <cell r="D16">
+            <v>21.650635094610969</v>
+          </cell>
+          <cell r="E16">
+            <v>12.499999999999998</v>
+          </cell>
+          <cell r="F16">
+            <v>10.825317547305485</v>
+          </cell>
+          <cell r="G16">
+            <v>6.2499999999999991</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>6.1257422745431001E-17</v>
+          </cell>
+          <cell r="C17">
+            <v>1</v>
+          </cell>
+          <cell r="D17">
+            <v>1.531435568635775E-15</v>
+          </cell>
+          <cell r="E17">
+            <v>25</v>
+          </cell>
+          <cell r="F17">
+            <v>9.1886134118146501E-16</v>
+          </cell>
+          <cell r="G17">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>-0.86602540378443871</v>
+          </cell>
+          <cell r="C18">
+            <v>0.49999999999999994</v>
+          </cell>
+          <cell r="D18">
+            <v>-21.650635094610969</v>
+          </cell>
+          <cell r="E18">
+            <v>12.499999999999998</v>
+          </cell>
+          <cell r="F18">
+            <v>-19.48557158514987</v>
+          </cell>
+          <cell r="G18">
+            <v>11.249999999999998</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>-0.8660254037844386</v>
+          </cell>
+          <cell r="C19">
+            <v>-0.50000000000000011</v>
+          </cell>
+          <cell r="D19">
+            <v>-21.650635094610966</v>
+          </cell>
+          <cell r="E19">
+            <v>-12.500000000000004</v>
+          </cell>
+          <cell r="F19">
+            <v>-17.320508075688771</v>
+          </cell>
+          <cell r="G19">
+            <v>-10.000000000000002</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>-1.83772268236293E-16</v>
+          </cell>
+          <cell r="C20">
+            <v>-1</v>
+          </cell>
+          <cell r="D20">
+            <v>-4.594306705907325E-15</v>
+          </cell>
+          <cell r="E20">
+            <v>-25</v>
+          </cell>
+          <cell r="F20">
+            <v>-2.756584023544395E-15</v>
+          </cell>
+          <cell r="G20">
+            <v>-15</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>0.86602540378443837</v>
+          </cell>
+          <cell r="C21">
+            <v>-0.50000000000000044</v>
+          </cell>
+          <cell r="D21">
+            <v>21.650635094610958</v>
+          </cell>
+          <cell r="E21">
+            <v>-12.500000000000011</v>
+          </cell>
+          <cell r="F21">
+            <v>15.155444566227672</v>
+          </cell>
+          <cell r="G21">
+            <v>-8.7500000000000071</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>0.86602540378443871</v>
+          </cell>
+          <cell r="C22">
+            <v>0.49999999999999994</v>
+          </cell>
+          <cell r="D22">
+            <v>21.650635094610969</v>
+          </cell>
+          <cell r="E22">
+            <v>12.499999999999998</v>
+          </cell>
+          <cell r="F22">
+            <v>10.825317547305485</v>
+          </cell>
+          <cell r="G22">
+            <v>6.2499999999999991</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25" t="str">
+            <v>Point 1</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>Intercept 1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>L</v>
+          </cell>
+          <cell r="B26">
+            <v>0</v>
+          </cell>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="F26">
+            <v>18.186533479473209</v>
+          </cell>
+          <cell r="G26">
+            <v>13.601039995332528</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>64.9519052838329</v>
+          </cell>
+          <cell r="C27">
+            <v>37.499999999999993</v>
+          </cell>
+          <cell r="F27">
+            <v>-4.5000000000000071</v>
+          </cell>
+          <cell r="G27">
+            <v>-3.3653846153846207</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="B28">
+            <v>0</v>
+          </cell>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>4.594306705907325E-15</v>
+          </cell>
+          <cell r="C29">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="B30">
+            <v>0</v>
+          </cell>
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>-64.9519052838329</v>
+          </cell>
+          <cell r="C31">
+            <v>37.499999999999993</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>D</v>
+          </cell>
+          <cell r="B32">
+            <v>0</v>
+          </cell>
+          <cell r="C32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>-64.9519052838329</v>
+          </cell>
+          <cell r="C33">
+            <v>-37.500000000000014</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>G</v>
+          </cell>
+          <cell r="B34">
+            <v>0</v>
+          </cell>
+          <cell r="C34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>-1.3782920117721975E-14</v>
+          </cell>
+          <cell r="C35">
+            <v>-75</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>W</v>
+          </cell>
+          <cell r="B36">
+            <v>0</v>
+          </cell>
+          <cell r="C36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>64.951905283832872</v>
+          </cell>
+          <cell r="C37">
+            <v>-37.500000000000028</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Target 1</v>
+          </cell>
+          <cell r="B38">
+            <v>0</v>
+          </cell>
+          <cell r="C38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>54.559600438419622</v>
+          </cell>
+          <cell r="C39">
+            <v>-13.500000000000021</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -641,195 +3741,1968 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="8.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="7" style="1" customWidth="1"/>
+    <col min="21" max="24" width="9.140625" style="2"/>
+    <col min="25" max="26" width="8.85546875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+    </row>
+    <row r="2" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="47">
+        <f>IF($F$59&gt;$G$59,$F$59-$G$59,0)</f>
+        <v>2.396336441245893</v>
+      </c>
+      <c r="Y2" s="48"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="15">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15">
+        <f>B3*5</f>
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
         <v>10</v>
       </c>
+      <c r="W3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="49">
+        <f>IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$M$5))*100</f>
+        <v>0.23934675191678023</v>
+      </c>
+      <c r="Y3" s="50" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="L4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="51">
+        <f>IF(X3=0,100000000,100/X3)</f>
+        <v>417.8038732473359</v>
+      </c>
+      <c r="Y4" s="50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="49">
+        <f>X4/20</f>
+        <v>20.890193662366794</v>
+      </c>
+      <c r="Y5" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="13">
+        <v>30</v>
+      </c>
+      <c r="C6" s="14">
+        <f>B6*PI()/180</f>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="20">
+        <v>5</v>
+      </c>
+      <c r="G6" s="21">
+        <f>F6*$C$3/$D$3</f>
+        <v>12.5</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>2</v>
+      </c>
+      <c r="J6" s="21">
+        <f>PRODUCT(H6:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="18">
+        <v>10</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="12">
+        <f>ROUNDDOWN(IF(R6=$F$68,$J$60,IF(R6=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$M$6))*$M$8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15">
+        <f>B6+60</f>
+        <v>90</v>
+      </c>
+      <c r="C7" s="16">
+        <f t="shared" ref="C7:C11" si="0">B7*PI()/180</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="20">
+        <v>6</v>
+      </c>
+      <c r="G7" s="21">
+        <f>F7*$C$3/$D$3</f>
+        <v>15</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>4</v>
+      </c>
+      <c r="J7" s="21">
+        <f t="shared" ref="J7:J11" si="1">PRODUCT(H7:I7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="18">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="12">
+        <f>ROUNDDOWN(IF(R7=$F$68,$J$60,IF(R7=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$M$6))*$M$8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="15">
+        <f t="shared" ref="B8:B11" si="2">B7+60</f>
+        <v>150</v>
+      </c>
+      <c r="C8" s="16">
+        <f t="shared" si="0"/>
+        <v>2.6179938779914944</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="20">
+        <v>9</v>
+      </c>
+      <c r="G8" s="21">
+        <f>F8*$C$3/$D$3</f>
+        <v>22.5</v>
+      </c>
+      <c r="H8" s="20">
+        <v>3</v>
+      </c>
+      <c r="I8" s="20">
+        <v>5</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="58">
+        <f>100*M7</f>
+        <v>100</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="12">
+        <f>ROUNDDOWN(IF(R8=$F$68,$J$60,IF(R8=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$M$6))*$M$8,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" si="0"/>
+        <v>3.6651914291880923</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="20">
+        <v>5</v>
+      </c>
+      <c r="G9" s="21">
+        <f>F9*$C$3/$D$3</f>
+        <v>12.5</v>
+      </c>
+      <c r="H9" s="20">
+        <v>2</v>
+      </c>
+      <c r="I9" s="20">
+        <v>3</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="12">
+        <f>ROUNDDOWN(IF(R9=$F$68,$J$60,IF(R9=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$M$6))*$M$8,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="15">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="C10" s="16">
+        <f t="shared" si="0"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="20">
+        <v>6</v>
+      </c>
+      <c r="G10" s="21">
+        <f>F10*$C$3/$D$3</f>
+        <v>15</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <v>2</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="12">
+        <f>ROUNDDOWN(IF(R10=$F$68,$J$60,IF(R10=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$M$6))*$M$8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="15">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" si="0"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="20">
+        <v>7</v>
+      </c>
+      <c r="G11" s="21">
+        <f>F11*$C$3/$D$3</f>
+        <v>17.5</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20">
+        <v>4</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="12">
+        <f>ROUNDDOWN(IF(R11=$F$68,$J$60,IF(R11=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$M$6))*$M$8,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="2"/>
+      <c r="M44" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N44" s="36"/>
+      <c r="O44" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="36"/>
+    </row>
+    <row r="45" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="23"/>
+      <c r="L45" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M45" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N45" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="P45" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q45" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S45" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="T45" s="53"/>
+    </row>
+    <row r="46" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" s="38">
+        <v>0</v>
+      </c>
+      <c r="M46" s="46">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N46" s="46">
+        <f>(1-EXP(-L46/$M$6))*$M$8</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="44">
+        <f>1-EXP(-L46/$M$5)</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="40">
+        <f>IF(O46=0,10000000000000,1/O46)</f>
+        <v>10000000000000</v>
+      </c>
+      <c r="Q46" s="41">
+        <f>P46/20</f>
+        <v>500000000000</v>
+      </c>
+      <c r="S46" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="T46" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="22">
+        <f>$C$2*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="C47" s="22">
+        <f>$C$2*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="D47" s="22">
+        <f>$C$3*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <v>21.650635094610969</v>
+      </c>
+      <c r="E47" s="22">
+        <f>$C$3*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <v>12.499999999999998</v>
+      </c>
+      <c r="F47" s="22">
+        <f>VLOOKUP($A47,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <v>10.825317547305485</v>
+      </c>
+      <c r="G47" s="22">
+        <f>VLOOKUP($A47,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <v>6.2499999999999991</v>
+      </c>
+      <c r="H47" s="22">
+        <f>VLOOKUP($A47,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="22">
+        <f>VLOOKUP($A47,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="38">
+        <v>1</v>
+      </c>
+      <c r="M47" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N47" s="38">
+        <f>(1-EXP(-L47/$M$6))*$M$8</f>
+        <v>9.5162581964040491</v>
+      </c>
+      <c r="O47" s="44">
+        <f>1-EXP(-L47/$M$5)</f>
+        <v>9.9950016662497809E-4</v>
+      </c>
+      <c r="P47" s="40">
+        <f t="shared" ref="P47:P70" si="3">1/O47</f>
+        <v>1000.5000833333622</v>
+      </c>
+      <c r="Q47" s="41">
+        <f t="shared" ref="Q47:Q71" si="4">P47/20</f>
+        <v>50.025004166668111</v>
+      </c>
+      <c r="S47" s="54">
+        <v>0</v>
+      </c>
+      <c r="T47" s="54">
+        <f>T48</f>
+        <v>21.308390039906666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="22">
+        <f>$C$2*COS(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="C48" s="22">
+        <f>$C$2*SIN(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="D48" s="22">
+        <f>$C$3*COS(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <v>1.531435568635775E-15</v>
+      </c>
+      <c r="E48" s="22">
+        <f>$C$3*SIN(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <v>25</v>
+      </c>
+      <c r="F48" s="22">
+        <f>VLOOKUP($A48,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <v>9.1886134118146501E-16</v>
+      </c>
+      <c r="G48" s="22">
+        <f>VLOOKUP($A48,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <v>15</v>
+      </c>
+      <c r="H48" s="22">
+        <f>VLOOKUP($A48,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="22">
+        <f>VLOOKUP($A48,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="38">
+        <v>2</v>
+      </c>
+      <c r="M48" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N48" s="38">
+        <f>(1-EXP(-L48/$M$6))*$M$8</f>
+        <v>18.126924692201818</v>
+      </c>
+      <c r="O48" s="44">
+        <f>1-EXP(-L48/$M$5)</f>
+        <v>1.998001332666921E-3</v>
+      </c>
+      <c r="P48" s="40">
+        <f t="shared" si="3"/>
+        <v>500.50016666665863</v>
+      </c>
+      <c r="Q48" s="41">
+        <f t="shared" si="4"/>
+        <v>25.025008333332931</v>
+      </c>
+      <c r="S48" s="40">
+        <f>J57</f>
+        <v>2.396336441245893</v>
+      </c>
+      <c r="T48" s="40">
+        <f>(1-EXP(-S48/$M$6))*$M$8</f>
+        <v>21.308390039906666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="22">
+        <f>$C$2*COS(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <v>-0.86602540378443871</v>
+      </c>
+      <c r="C49" s="22">
+        <f>$C$2*SIN(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="D49" s="22">
+        <f>$C$3*COS(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <v>-21.650635094610969</v>
+      </c>
+      <c r="E49" s="22">
+        <f>$C$3*SIN(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <v>12.499999999999998</v>
+      </c>
+      <c r="F49" s="22">
+        <f>VLOOKUP($A49,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <v>-19.48557158514987</v>
+      </c>
+      <c r="G49" s="22">
+        <f>VLOOKUP($A49,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <v>11.249999999999998</v>
+      </c>
+      <c r="H49" s="22">
+        <f>VLOOKUP($A49,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <v>-12.99038105676658</v>
+      </c>
+      <c r="I49" s="22">
+        <f>VLOOKUP($A49,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <v>7.4999999999999991</v>
+      </c>
+      <c r="L49" s="38">
+        <v>3</v>
+      </c>
+      <c r="M49" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N49" s="38">
+        <f>(1-EXP(-L49/$M$6))*$M$8</f>
+        <v>25.918177931828211</v>
+      </c>
+      <c r="O49" s="44">
+        <f>1-EXP(-L49/$M$5)</f>
+        <v>2.9955044966269995E-3</v>
+      </c>
+      <c r="P49" s="40">
+        <f t="shared" si="3"/>
+        <v>333.83358333329858</v>
+      </c>
+      <c r="Q49" s="41">
+        <f t="shared" si="4"/>
+        <v>16.69167916666493</v>
+      </c>
+      <c r="S49" s="42">
+        <f>S48</f>
+        <v>2.396336441245893</v>
+      </c>
+      <c r="T49" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="22">
+        <f>$C$2*COS(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="C50" s="22">
+        <f>$C$2*SIN(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <v>-0.50000000000000011</v>
+      </c>
+      <c r="D50" s="22">
+        <f>$C$3*COS(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <v>-21.650635094610966</v>
+      </c>
+      <c r="E50" s="22">
+        <f>$C$3*SIN(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <v>-12.500000000000004</v>
+      </c>
+      <c r="F50" s="22">
+        <f>VLOOKUP($A50,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <v>-10.825317547305483</v>
+      </c>
+      <c r="G50" s="22">
+        <f>VLOOKUP($A50,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <v>-6.2500000000000018</v>
+      </c>
+      <c r="H50" s="22">
+        <f>VLOOKUP($A50,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <v>-5.196152422706632</v>
+      </c>
+      <c r="I50" s="22">
+        <f>VLOOKUP($A50,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <v>-3.0000000000000009</v>
+      </c>
+      <c r="L50" s="38">
+        <v>4</v>
+      </c>
+      <c r="M50" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N50" s="38">
+        <f>(1-EXP(-L50/$M$6))*$M$8</f>
+        <v>32.967995396436066</v>
+      </c>
+      <c r="O50" s="44">
+        <f>1-EXP(-L50/$M$5)</f>
+        <v>3.9920106560085156E-3</v>
+      </c>
+      <c r="P50" s="40">
+        <f t="shared" si="3"/>
+        <v>250.50033333324521</v>
+      </c>
+      <c r="Q50" s="41">
+        <f t="shared" si="4"/>
+        <v>12.52501666666226</v>
+      </c>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+    </row>
+    <row r="51" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="22">
+        <f>$C$2*COS(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="C51" s="22">
+        <f>$C$2*SIN(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <v>-1</v>
+      </c>
+      <c r="D51" s="22">
+        <f>$C$3*COS(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <v>-4.594306705907325E-15</v>
+      </c>
+      <c r="E51" s="22">
+        <f>$C$3*SIN(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <v>-25</v>
+      </c>
+      <c r="F51" s="22">
+        <f>VLOOKUP($A51,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <v>-2.756584023544395E-15</v>
+      </c>
+      <c r="G51" s="22">
+        <f>VLOOKUP($A51,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <v>-15</v>
+      </c>
+      <c r="H51" s="22">
+        <f>VLOOKUP($A51,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="22">
+        <f>VLOOKUP($A51,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="38">
+        <v>5</v>
+      </c>
+      <c r="M51" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N51" s="38">
+        <f>(1-EXP(-L51/$M$6))*$M$8</f>
+        <v>39.346934028736655</v>
+      </c>
+      <c r="O51" s="44">
+        <f>1-EXP(-L51/$M$5)</f>
+        <v>4.9875208073176802E-3</v>
+      </c>
+      <c r="P51" s="40">
+        <f t="shared" si="3"/>
+        <v>200.50041666649332</v>
+      </c>
+      <c r="Q51" s="41">
+        <f t="shared" si="4"/>
+        <v>10.025020833324666</v>
+      </c>
+      <c r="S51" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="T51" s="56"/>
+    </row>
+    <row r="52" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="22">
+        <f>$C$2*COS(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <v>0.86602540378443837</v>
+      </c>
+      <c r="C52" s="22">
+        <f>$C$2*SIN(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <v>-0.50000000000000044</v>
+      </c>
+      <c r="D52" s="22">
+        <f>$C$3*COS(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <v>21.650635094610958</v>
+      </c>
+      <c r="E52" s="22">
+        <f>$C$3*SIN(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <v>-12.500000000000011</v>
+      </c>
+      <c r="F52" s="22">
+        <f>VLOOKUP($A52,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <v>15.155444566227672</v>
+      </c>
+      <c r="G52" s="22">
+        <f>VLOOKUP($A52,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <v>-8.7500000000000071</v>
+      </c>
+      <c r="H52" s="22">
+        <f>VLOOKUP($A52,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="22">
+        <f>VLOOKUP($A52,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="38">
+        <v>6</v>
+      </c>
+      <c r="M52" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N52" s="38">
+        <f>(1-EXP(-L52/$M$6))*$M$8</f>
+        <v>45.118836390597359</v>
+      </c>
+      <c r="O52" s="44">
+        <f>1-EXP(-L52/$M$5)</f>
+        <v>5.9820359460647232E-3</v>
+      </c>
+      <c r="P52" s="40">
+        <f t="shared" si="3"/>
+        <v>167.167166666367</v>
+      </c>
+      <c r="Q52" s="41">
+        <f t="shared" si="4"/>
+        <v>8.3583583333183498</v>
+      </c>
+      <c r="S52" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="T52" s="57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="22">
+        <f>$C$2*COS(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="C53" s="22">
+        <f>$C$2*SIN(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="D53" s="22">
+        <f>$C$3*COS(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <v>21.650635094610969</v>
+      </c>
+      <c r="E53" s="22">
+        <f>$C$3*SIN(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <v>12.499999999999998</v>
+      </c>
+      <c r="F53" s="22">
+        <f>VLOOKUP($A53,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <v>10.825317547305485</v>
+      </c>
+      <c r="G53" s="22">
+        <f>VLOOKUP($A53,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <v>6.2499999999999991</v>
+      </c>
+      <c r="H53" s="22">
+        <f>VLOOKUP($A53,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="22">
+        <f>VLOOKUP($A53,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="38">
+        <v>7</v>
+      </c>
+      <c r="M53" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N53" s="38">
+        <f>(1-EXP(-L53/$M$6))*$M$8</f>
+        <v>50.341469620859044</v>
+      </c>
+      <c r="O53" s="44">
+        <f>1-EXP(-L53/$M$5)</f>
+        <v>6.9755570667648925E-3</v>
+      </c>
+      <c r="P53" s="40">
+        <f t="shared" si="3"/>
+        <v>143.35772618999985</v>
+      </c>
+      <c r="Q53" s="41">
+        <f t="shared" si="4"/>
+        <v>7.1678863094999929</v>
+      </c>
+      <c r="S53" s="54">
+        <v>0</v>
+      </c>
+      <c r="T53" s="54">
+        <f>T54</f>
+        <v>20.890193662366794</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="22">
+        <f>SUM(H47:H52)</f>
+        <v>-18.186533479473212</v>
+      </c>
+      <c r="I54" s="22">
+        <f>SUM(I47:I52)</f>
+        <v>4.4999999999999982</v>
+      </c>
+      <c r="L54" s="38">
+        <v>8</v>
+      </c>
+      <c r="M54" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N54" s="38">
+        <f>(1-EXP(-L54/$M$6))*$M$8</f>
+        <v>55.067103588277845</v>
+      </c>
+      <c r="O54" s="44">
+        <f>1-EXP(-L54/$M$5)</f>
+        <v>7.9680851629393423E-3</v>
+      </c>
+      <c r="P54" s="40">
+        <f t="shared" si="3"/>
+        <v>125.50066666595599</v>
+      </c>
+      <c r="Q54" s="41">
+        <f t="shared" si="4"/>
+        <v>6.2750333332977997</v>
+      </c>
+      <c r="S54" s="40">
+        <f>J57</f>
+        <v>2.396336441245893</v>
+      </c>
+      <c r="T54" s="40">
+        <f>1/(20*(1-EXP(-S54/$M$5)))</f>
+        <v>20.890193662366794</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L55" s="38">
+        <v>9</v>
+      </c>
+      <c r="M55" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N55" s="38">
+        <f>(1-EXP(-L55/$M$6))*$M$8</f>
+        <v>59.343034025940092</v>
+      </c>
+      <c r="O55" s="44">
+        <f>1-EXP(-L55/$M$5)</f>
+        <v>8.9596212271163544E-3</v>
+      </c>
+      <c r="P55" s="40">
+        <f t="shared" si="3"/>
+        <v>111.6118611100984</v>
+      </c>
+      <c r="Q55" s="41">
+        <f t="shared" si="4"/>
+        <v>5.5805930555049201</v>
+      </c>
+      <c r="S55" s="42">
+        <f>S54</f>
+        <v>2.396336441245893</v>
+      </c>
+      <c r="T55" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="17" t="s">
         <v>12</v>
       </c>
+      <c r="G56" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="12" t="b">
+        <f>F59&lt;=G59</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="38">
+        <v>10</v>
+      </c>
+      <c r="M56" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N56" s="38">
+        <f>(1-EXP(-L56/$M$6))*$M$8</f>
+        <v>63.212055882855765</v>
+      </c>
+      <c r="O56" s="44">
+        <f>1-EXP(-L56/$M$5)</f>
+        <v>9.9501662508318933E-3</v>
+      </c>
+      <c r="P56" s="40">
+        <f t="shared" si="3"/>
+        <v>100.50083333194499</v>
+      </c>
+      <c r="Q56" s="41">
+        <f t="shared" si="4"/>
+        <v>5.0250416665972493</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="57" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="26">
+        <v>0</v>
+      </c>
+      <c r="C57" s="26">
+        <v>0</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="22">
+        <f>H54</f>
+        <v>-18.186533479473212</v>
+      </c>
+      <c r="G57" s="12">
+        <f>F75/(F76-F74)</f>
+        <v>-15.860348964656872</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="26">
+        <f>IF(J56,0,F59-G59)</f>
+        <v>2.396336441245893</v>
+      </c>
+      <c r="L57" s="38">
+        <v>11</v>
+      </c>
+      <c r="M57" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N57" s="38">
+        <f>(1-EXP(-L57/$M$6))*$M$8</f>
+        <v>66.712891630192047</v>
+      </c>
+      <c r="O57" s="44">
+        <f>1-EXP(-L57/$M$5)</f>
+        <v>1.0939721224631271E-2</v>
+      </c>
+      <c r="P57" s="40">
+        <f t="shared" si="3"/>
+        <v>91.410007573909226</v>
+      </c>
+      <c r="Q57" s="41">
+        <f t="shared" si="4"/>
+        <v>4.5705003786954617</v>
+      </c>
+      <c r="R57" s="2"/>
+    </row>
+    <row r="58" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="25"/>
+      <c r="B58" s="26">
+        <f>$B$72*VLOOKUP($A57,$A$47:$G$53,4,FALSE)</f>
+        <v>108.25317547305485</v>
+      </c>
+      <c r="C58" s="26">
+        <f>$B$72*VLOOKUP($A57,$A$47:$G$53,5,FALSE)</f>
+        <v>62.499999999999993</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="22">
+        <f>I54</f>
+        <v>4.4999999999999982</v>
+      </c>
+      <c r="G58" s="12">
+        <f>G57*F76</f>
+        <v>3.9244186046511613</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="12">
+        <f>VLOOKUP(F68,$A$6:$C$11,2,FALSE)-VLOOKUP(F69,$A$6:$C$11,2,FALSE) + IF(VLOOKUP(F68,$A$6:$C$11,2,FALSE)-VLOOKUP(F69,$A$6:$C$11,2,FALSE)&gt;180,-360,IF(VLOOKUP(F68,$A$6:$C$11,2,FALSE)-VLOOKUP(F69,$A$6:$C$11,2,FALSE)&lt;=-180,360,0))</f>
+        <v>60</v>
+      </c>
+      <c r="L58" s="38">
+        <v>12</v>
+      </c>
+      <c r="M58" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N58" s="38">
+        <f>(1-EXP(-L58/$M$6))*$M$8</f>
+        <v>69.880578808779774</v>
+      </c>
+      <c r="O58" s="44">
+        <f>1-EXP(-L58/$M$5)</f>
+        <v>1.1928287138069482E-2</v>
+      </c>
+      <c r="P58" s="40">
+        <f t="shared" si="3"/>
+        <v>83.834333330933191</v>
+      </c>
+      <c r="Q58" s="41">
+        <f t="shared" si="4"/>
+        <v>4.1917166665466592</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="26">
+        <v>0</v>
+      </c>
+      <c r="C59" s="26">
+        <v>0</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="22">
+        <f>SQRT(F57*F57+F58*F58)</f>
+        <v>18.734993995195193</v>
+      </c>
+      <c r="G59" s="22">
+        <f>SQRT(G57*G57+G58*G58)</f>
+        <v>16.3386575539493</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="26">
+        <f>VLOOKUP(F68,$A$6:$C$11,2,FALSE)-F61 + IF(VLOOKUP(F68,$A$6:$C$11,2,FALSE)-F61&gt;180,-360,IF(VLOOKUP(F68,$A$6:$C$11,2,FALSE)-F61&lt;=-180,360,0))</f>
+        <v>43.897886248013947</v>
+      </c>
+      <c r="L59" s="38">
+        <v>13</v>
+      </c>
+      <c r="M59" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N59" s="38">
+        <f>(1-EXP(-L59/$M$6))*$M$8</f>
+        <v>72.746820696598746</v>
+      </c>
+      <c r="O59" s="44">
+        <f>1-EXP(-L59/$M$5)</f>
+        <v>1.2915864979712421E-2</v>
+      </c>
+      <c r="P59" s="40">
+        <f t="shared" si="3"/>
+        <v>77.424160253358849</v>
+      </c>
+      <c r="Q59" s="41">
+        <f t="shared" si="4"/>
+        <v>3.8712080126679425</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="25"/>
+      <c r="B60" s="26">
+        <f>$B$72*VLOOKUP($A59,$A$47:$G$53,4,FALSE)</f>
+        <v>7.6571778431788751E-15</v>
+      </c>
+      <c r="C60" s="26">
+        <f>$B$72*VLOOKUP($A59,$A$47:$G$53,5,FALSE)</f>
+        <v>125</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="22">
+        <f>IF(ATAN2(F57,F58) &lt; 0, ATAN2(F57,F58) + 2*PI(), ATAN2(F57,F58))</f>
+        <v>2.8990287794943082</v>
+      </c>
+      <c r="G60" s="22">
+        <f>IF(ATAN2(G57,G58) &lt; 0, ATAN2(G57,G58) + 2*PI(), ATAN2(G57,G58))</f>
+        <v>2.8990287794943082</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" s="12">
+        <f>1-J59/J58</f>
+        <v>0.26836856253310093</v>
+      </c>
+      <c r="L60" s="38">
+        <v>14</v>
+      </c>
+      <c r="M60" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N60" s="38">
+        <f>(1-EXP(-L60/$M$6))*$M$8</f>
+        <v>75.340303605839352</v>
+      </c>
+      <c r="O60" s="44">
+        <f>1-EXP(-L60/$M$5)</f>
+        <v>1.3902455737138109E-2</v>
+      </c>
+      <c r="P60" s="40">
+        <f t="shared" si="3"/>
+        <v>71.929738091426941</v>
+      </c>
+      <c r="Q60" s="41">
+        <f t="shared" si="4"/>
+        <v>3.5964869045713472</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>150</v>
-      </c>
-      <c r="C5">
-        <f>$B$1*COS(B5*PI()/180)</f>
-        <v>-0.86602540378443871</v>
-      </c>
-      <c r="D5">
-        <f>$B$1*SIN(B5*PI()/180)</f>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="E5">
-        <f>$B$2*COS(B5*PI()/180)</f>
-        <v>-8.6602540378443873</v>
-      </c>
-      <c r="F5">
-        <f>$B$2*SIN(B5*PI()/180)</f>
-        <v>4.9999999999999991</v>
+      <c r="B61" s="26">
+        <v>0</v>
+      </c>
+      <c r="C61" s="26">
+        <v>0</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="22">
+        <f>F60*180/PI()</f>
+        <v>166.10211375198605</v>
+      </c>
+      <c r="G61" s="22">
+        <f>G60*180/PI()</f>
+        <v>166.10211375198605</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J61" s="12">
+        <f>1-J60</f>
+        <v>0.73163143746689907</v>
+      </c>
+      <c r="L61" s="38">
+        <v>15</v>
+      </c>
+      <c r="M61" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N61" s="38">
+        <f>(1-EXP(-L61/$M$6))*$M$8</f>
+        <v>77.686983985157028</v>
+      </c>
+      <c r="O61" s="44">
+        <f>1-EXP(-L61/$M$5)</f>
+        <v>1.4888060396937353E-2</v>
+      </c>
+      <c r="P61" s="40">
+        <f t="shared" si="3"/>
+        <v>67.167916661979135</v>
+      </c>
+      <c r="Q61" s="41">
+        <f t="shared" si="4"/>
+        <v>3.3583958330989567</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="62" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="25"/>
+      <c r="B62" s="26">
+        <f>$B$72*VLOOKUP($A61,$A$47:$G$53,4,FALSE)</f>
+        <v>-108.25317547305485</v>
+      </c>
+      <c r="C62" s="26">
+        <f>$B$72*VLOOKUP($A61,$A$47:$G$53,5,FALSE)</f>
+        <v>62.499999999999993</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="33" t="b">
+        <f>OR(F$61&lt;=VLOOKUP($E62,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="33" t="b">
+        <f>OR(G$61&lt;=VLOOKUP($E62,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="38">
+        <v>16</v>
+      </c>
+      <c r="M62" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N62" s="38">
+        <f>(1-EXP(-L62/$M$6))*$M$8</f>
+        <v>79.810348200534463</v>
+      </c>
+      <c r="O62" s="44">
+        <f>1-EXP(-L62/$M$5)</f>
+        <v>1.5872679944714863E-2</v>
+      </c>
+      <c r="P62" s="40">
+        <f t="shared" si="3"/>
+        <v>63.001333327644566</v>
+      </c>
+      <c r="Q62" s="41">
+        <f t="shared" si="4"/>
+        <v>3.1500666663822283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="26">
+        <v>0</v>
+      </c>
+      <c r="C63" s="26">
+        <v>0</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="33" t="b">
+        <f>OR(F$61&lt;=VLOOKUP($E63,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="33" t="b">
+        <f>OR(G$61&lt;=VLOOKUP($E63,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="38">
+        <v>17</v>
+      </c>
+      <c r="M63" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N63" s="38">
+        <f>(1-EXP(-L63/$M$6))*$M$8</f>
+        <v>81.731647594726525</v>
+      </c>
+      <c r="O63" s="44">
+        <f>1-EXP(-L63/$M$5)</f>
+        <v>1.6856315365090357E-2</v>
+      </c>
+      <c r="P63" s="40">
+        <f t="shared" si="3"/>
+        <v>59.324946071607833</v>
+      </c>
+      <c r="Q63" s="41">
+        <f t="shared" si="4"/>
+        <v>2.9662473035803916</v>
+      </c>
+      <c r="X63"/>
+    </row>
+    <row r="64" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="25"/>
+      <c r="B64" s="26">
+        <f>$B$72*VLOOKUP($A63,$A$47:$G$53,4,FALSE)</f>
+        <v>-108.25317547305482</v>
+      </c>
+      <c r="C64" s="26">
+        <f>$B$72*VLOOKUP($A63,$A$47:$G$53,5,FALSE)</f>
+        <v>-62.500000000000014</v>
+      </c>
+      <c r="E64" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="33" t="b">
+        <f>OR(F$61&lt;=VLOOKUP($E64,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="33" t="b">
+        <f>OR(G$61&lt;=VLOOKUP($E64,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="J64" s="3"/>
+      <c r="L64" s="38">
+        <v>18</v>
+      </c>
+      <c r="M64" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N64" s="38">
+        <f>(1-EXP(-L64/$M$6))*$M$8</f>
+        <v>83.470111177841346</v>
+      </c>
+      <c r="O64" s="44">
+        <f>1-EXP(-L64/$M$5)</f>
+        <v>1.7838967641699233E-2</v>
+      </c>
+      <c r="P64" s="40">
+        <f t="shared" si="3"/>
+        <v>56.057055547455775</v>
+      </c>
+      <c r="Q64" s="41">
+        <f t="shared" si="4"/>
+        <v>2.8028527773727889</v>
+      </c>
+      <c r="X64"/>
+    </row>
+    <row r="65" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="26">
+        <v>0</v>
+      </c>
+      <c r="C65" s="26">
+        <v>0</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="33" t="b">
+        <f>OR(F$61&lt;=VLOOKUP($E65,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
+        <v>1</v>
+      </c>
+      <c r="G65" s="33" t="b">
+        <f>OR(G$61&lt;=VLOOKUP($E65,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
+        <v>1</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="3"/>
+      <c r="L65" s="38">
+        <v>19</v>
+      </c>
+      <c r="M65" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N65" s="38">
+        <f>(1-EXP(-L65/$M$6))*$M$8</f>
+        <v>85.043138077736486</v>
+      </c>
+      <c r="O65" s="44">
+        <f>1-EXP(-L65/$M$5)</f>
+        <v>1.8820637757194003E-2</v>
+      </c>
+      <c r="P65" s="40">
+        <f t="shared" si="3"/>
+        <v>53.133162271175422</v>
+      </c>
+      <c r="Q65" s="41">
+        <f t="shared" si="4"/>
+        <v>2.656658113558771</v>
+      </c>
+      <c r="X65"/>
+    </row>
+    <row r="66" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="25"/>
+      <c r="B66" s="26">
+        <f>$B$72*VLOOKUP($A65,$A$47:$G$53,4,FALSE)</f>
+        <v>-2.2971533529536625E-14</v>
+      </c>
+      <c r="C66" s="26">
+        <f>$B$72*VLOOKUP($A65,$A$47:$G$53,5,FALSE)</f>
+        <v>-125</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="33" t="b">
+        <f>OR(F$61&lt;=VLOOKUP($E66,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
+        <v>1</v>
+      </c>
+      <c r="G66" s="33" t="b">
+        <f>OR(G$61&lt;=VLOOKUP($E66,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
+        <v>1</v>
+      </c>
+      <c r="I66" s="2"/>
+      <c r="J66" s="3"/>
+      <c r="L66" s="38">
+        <v>20</v>
+      </c>
+      <c r="M66" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N66" s="38">
+        <f>(1-EXP(-L66/$M$6))*$M$8</f>
+        <v>86.466471676338728</v>
+      </c>
+      <c r="O66" s="44">
+        <f>1-EXP(-L66/$M$5)</f>
+        <v>1.9801326693244747E-2</v>
+      </c>
+      <c r="P66" s="40">
+        <f t="shared" si="3"/>
+        <v>50.501666655555532</v>
+      </c>
+      <c r="Q66" s="41">
+        <f t="shared" si="4"/>
+        <v>2.5250833327777764</v>
+      </c>
+      <c r="X66"/>
+    </row>
+    <row r="67" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>330</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C10" si="0">$B$1*COS(B6*PI()/180)</f>
-        <v>0.86602540378443837</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D10" si="1">$B$1*SIN(B6*PI()/180)</f>
-        <v>-0.50000000000000044</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E10" si="2">$B$2*COS(B6*PI()/180)</f>
-        <v>8.6602540378443837</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F10" si="3">$B$2*SIN(B6*PI()/180)</f>
-        <v>-5.0000000000000044</v>
-      </c>
+      <c r="B67" s="26">
+        <v>0</v>
+      </c>
+      <c r="C67" s="26">
+        <v>0</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="33" t="b">
+        <f>OR(F$61&lt;=VLOOKUP($E67,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
+        <v>1</v>
+      </c>
+      <c r="G67" s="33" t="b">
+        <f>OR(G$61&lt;=VLOOKUP($E67,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
+        <v>1</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="3"/>
+      <c r="L67" s="38">
+        <v>21</v>
+      </c>
+      <c r="M67" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N67" s="38">
+        <f>(1-EXP(-L67/$M$6))*$M$8</f>
+        <v>87.754357174701809</v>
+      </c>
+      <c r="O67" s="44">
+        <f>1-EXP(-L67/$M$5)</f>
+        <v>2.078103543054044E-2</v>
+      </c>
+      <c r="P67" s="40">
+        <f t="shared" si="3"/>
+        <v>48.120797606185192</v>
+      </c>
+      <c r="Q67" s="41">
+        <f t="shared" si="4"/>
+        <v>2.4060398803092595</v>
+      </c>
+      <c r="X67"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="68" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="25"/>
+      <c r="B68" s="26">
+        <f>$B$72*VLOOKUP($A67,$A$47:$G$53,4,FALSE)</f>
+        <v>108.2531754730548</v>
+      </c>
+      <c r="C68" s="26">
+        <f>$B$72*VLOOKUP($A67,$A$47:$G$53,5,FALSE)</f>
+        <v>-62.500000000000057</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="21" t="str">
+        <f>INDEX($A$6:$A$11,MATCH(TRUE,F62:F67,0))</f>
+        <v>DEATH</v>
+      </c>
+      <c r="G68" s="21" t="str">
+        <f>INDEX($A$6:$A$11,MATCH(TRUE,G62:G67,0))</f>
+        <v>DEATH</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="3"/>
+      <c r="L68" s="38">
+        <v>22</v>
+      </c>
+      <c r="M68" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N68" s="38">
+        <f>(1-EXP(-L68/$M$6))*$M$8</f>
+        <v>88.919684163766604</v>
+      </c>
+      <c r="O68" s="44">
+        <f>1-EXP(-L68/$M$5)</f>
+        <v>2.175976494878995E-2</v>
+      </c>
+      <c r="P68" s="40">
+        <f t="shared" si="3"/>
+        <v>45.95637877309008</v>
+      </c>
+      <c r="Q68" s="41">
+        <f t="shared" si="4"/>
+        <v>2.2978189386545038</v>
+      </c>
+      <c r="X68"/>
+    </row>
+    <row r="69" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="26">
+        <v>0</v>
+      </c>
+      <c r="C69" s="26">
+        <v>0</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="33" t="str">
+        <f>INDEX($A$6:$A$11,IF(MATCH(TRUE,F62:F67,0)=1,COUNTA($A$6:$A$11),MATCH(TRUE,F62:F67,0)-1))</f>
+        <v>FIRE</v>
+      </c>
+      <c r="G69" s="33" t="str">
+        <f>INDEX($A$6:$A$11,IF(MATCH(TRUE,G62:G67,0)=1,COUNTA($A$6:$A$11),MATCH(TRUE,G62:G67,0)-1))</f>
+        <v>FIRE</v>
+      </c>
+      <c r="I69" s="2"/>
+      <c r="J69" s="3"/>
+      <c r="L69" s="38">
+        <v>23</v>
+      </c>
+      <c r="M69" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N69" s="38">
+        <f>(1-EXP(-L69/$M$6))*$M$8</f>
+        <v>89.974115627719613</v>
+      </c>
+      <c r="O69" s="44">
+        <f>1-EXP(-L69/$M$5)</f>
+        <v>2.2737516226722931E-2</v>
+      </c>
+      <c r="P69" s="40">
+        <f t="shared" si="3"/>
+        <v>43.980177519333473</v>
+      </c>
+      <c r="Q69" s="41">
+        <f t="shared" si="4"/>
+        <v>2.1990088759666735</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="25"/>
+      <c r="B70" s="26">
+        <f>$B$72*F57</f>
+        <v>-90.93266739736606</v>
+      </c>
+      <c r="C70" s="26">
+        <f>$B$72*F58</f>
+        <v>22.499999999999993</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="26">
+        <f>VLOOKUP(F68,$A$47:$I$53,6,FALSE)</f>
+        <v>-10.825317547305483</v>
+      </c>
+      <c r="G70" s="26">
+        <f>VLOOKUP(G68,$A$47:$I$53,6,FALSE)</f>
+        <v>-10.825317547305483</v>
+      </c>
+      <c r="L70" s="38">
+        <v>24</v>
+      </c>
+      <c r="M70" s="38">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N70" s="38">
+        <f>(1-EXP(-L70/$M$6))*$M$8</f>
+        <v>90.928204671058751</v>
+      </c>
+      <c r="O70" s="44">
+        <f>1-EXP(-L70/$M$5)</f>
+        <v>2.3714290242090708E-2</v>
+      </c>
+      <c r="P70" s="40">
+        <f t="shared" si="3"/>
+        <v>42.168666647466893</v>
+      </c>
+      <c r="Q70" s="41">
+        <f t="shared" si="4"/>
+        <v>2.1084333323733446</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="26">
+        <f>VLOOKUP(F68,$A$47:$I$53,7,FALSE)</f>
+        <v>-6.2500000000000018</v>
+      </c>
+      <c r="G71" s="26">
+        <f>VLOOKUP(G68,$A$47:$I$53,7,FALSE)</f>
+        <v>-6.2500000000000018</v>
+      </c>
+      <c r="L71" s="39">
+        <v>25</v>
+      </c>
+      <c r="M71" s="39">
+        <f>$M$8</f>
+        <v>100</v>
+      </c>
+      <c r="N71" s="39">
+        <f>(1-EXP(-L71/$M$6))*$M$8</f>
+        <v>91.791500137610115</v>
+      </c>
+      <c r="O71" s="45">
+        <f>1-EXP(-L71/$M$5)</f>
+        <v>2.4690087971667385E-2</v>
+      </c>
+      <c r="P71" s="42">
+        <f>1/O71</f>
+        <v>40.502083311632177</v>
+      </c>
+      <c r="Q71" s="43">
+        <f t="shared" si="4"/>
+        <v>2.0251041655816087</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="24">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>90</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>6.1257422745431001E-16</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>10</v>
+      <c r="E72" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="26">
+        <f>VLOOKUP(F69,$A$47:$I$53,6,FALSE)</f>
+        <v>-19.48557158514987</v>
+      </c>
+      <c r="G72" s="26">
+        <f>VLOOKUP(G69,$A$47:$I$53,6,FALSE)</f>
+        <v>-19.48557158514987</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>270</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-1.83772268236293E-16</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>-1.83772268236293E-15</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>-10</v>
+    <row r="73" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" s="26">
+        <f>VLOOKUP(F69,$A$47:$I$53,7,FALSE)</f>
+        <v>11.249999999999998</v>
+      </c>
+      <c r="G73" s="26">
+        <f>VLOOKUP(G69,$A$47:$I$53,7,FALSE)</f>
+        <v>11.249999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>210</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-0.8660254037844386</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>-0.50000000000000011</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>-8.6602540378443855</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>-5.0000000000000009</v>
+    <row r="74" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="26">
+        <f>(F73-F71)/(F72-F70)</f>
+        <v>-2.0207259421636898</v>
+      </c>
+      <c r="G74" s="26">
+        <f>(G73-G71)/(G72-G70)</f>
+        <v>-2.0207259421636898</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.86602540378443871</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>8.6602540378443873</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>4.9999999999999991</v>
+    <row r="75" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="12">
+        <f>F71-F74*F70</f>
+        <v>-28.125</v>
+      </c>
+      <c r="G75" s="12">
+        <f>G71-G74*G70</f>
+        <v>-28.125</v>
       </c>
     </row>
+    <row r="76" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76" s="12">
+        <f>F58/F57</f>
+        <v>-0.24743582965269664</v>
+      </c>
+      <c r="G76" s="12">
+        <f>G58/G57</f>
+        <v>-0.24743582965269664</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <mergeCells count="17">
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F11">
+      <formula1>1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -840,7 +5713,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/math.xlsx
+++ b/math.xlsx
@@ -11,10 +11,6 @@
     <sheet name="Calculations" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -25,46 +21,7 @@
     <author>Xavier van Heule</author>
   </authors>
   <commentList>
-    <comment ref="W3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Chance of fizzle each tick</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Expected time until fizzling in ticks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The growth factor of the fizzling chance</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S5" authorId="0">
+    <comment ref="M4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,19 +31,6 @@
             <family val="2"/>
           </rPr>
           <t>Gained experience per element</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Expected time until fizzling in seconds</t>
         </r>
       </text>
     </comment>
@@ -129,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0">
+    <comment ref="T6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +82,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The growth factor for the experience gain</t>
+          <t>The growth factor of the fizzling chance</t>
         </r>
       </text>
     </comment>
@@ -181,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0">
+    <comment ref="O7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +134,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Experience multiplier</t>
+          <t>Chance of fizzle each tick</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The growth factor for the experience gain</t>
         </r>
       </text>
     </comment>
@@ -233,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M8" authorId="0">
+    <comment ref="O8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +199,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Experience coefficient</t>
+          <t>Expected time until fizzling in ticks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Experience multiplier</t>
         </r>
       </text>
     </comment>
@@ -282,6 +252,32 @@
             <family val="2"/>
           </rPr>
           <t>Set thepotency of the DEATH charges</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Expected time until fizzling in seconds</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Experience coefficient</t>
         </r>
       </text>
     </comment>
@@ -562,10 +558,10 @@
     <t>Exp base</t>
   </si>
   <si>
-    <t>(Experience multiplier</t>
-  </si>
-  <si>
     <t>Configuration</t>
+  </si>
+  <si>
+    <t>(Experience multiplier)</t>
   </si>
 </sst>
 </file>
@@ -574,8 +570,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -928,7 +924,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -967,13 +963,7 @@
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -982,15 +972,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1014,10 +995,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1027,14 +1008,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="3" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="3" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1043,10 +1028,24 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -1992,11 +1991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="64595072"/>
-        <c:axId val="97312064"/>
+        <c:axId val="77491008"/>
+        <c:axId val="77491584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64595072"/>
+        <c:axId val="77491008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2008,12 +2007,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97312064"/>
+        <c:crossAx val="77491584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97312064"/>
+        <c:axId val="77491584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2025,7 +2024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64595072"/>
+        <c:crossAx val="77491008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2192,8 +2191,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97311488"/>
-        <c:axId val="97310912"/>
+        <c:axId val="77494464"/>
+        <c:axId val="77495040"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2221,8 +2220,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2309,7 +2308,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.9999949998430537E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.5162581964040491</c:v>
@@ -2422,8 +2421,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2600,11 +2599,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97311488"/>
-        <c:axId val="97310912"/>
+        <c:axId val="77494464"/>
+        <c:axId val="77495040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97311488"/>
+        <c:axId val="77494464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2615,17 +2614,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97310912"/>
+        <c:crossAx val="77495040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97310912"/>
+        <c:axId val="77495040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="150"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2635,7 +2633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97311488"/>
+        <c:crossAx val="77494464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2768,8 +2766,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97044160"/>
-        <c:axId val="97305152"/>
+        <c:axId val="106251392"/>
+        <c:axId val="106251968"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2789,8 +2787,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:pt idx="0" formatCode="0">
+                  <c:v>1.0000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2877,7 +2875,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>500000000000</c:v>
+                  <c:v>5000000.030387355</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50.025004166668111</c:v>
@@ -2967,11 +2965,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97044160"/>
-        <c:axId val="97305152"/>
+        <c:axId val="106251392"/>
+        <c:axId val="106251968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97044160"/>
+        <c:axId val="106251392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2982,14 +2980,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97305152"/>
+        <c:crossAx val="106251968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97305152"/>
+        <c:axId val="106251968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -3002,7 +3000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97044160"/>
+        <c:crossAx val="106251392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3039,7 +3037,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8BEFA9B-A9EF-470C-99B1-444DB63A8217}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8BEFA9B-A9EF-470C-99B1-444DB63A8217}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3122,337 +3120,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>Min</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>Max</v>
-          </cell>
-          <cell r="F14" t="str">
-            <v>Real</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>0.86602540378443871</v>
-          </cell>
-          <cell r="C16">
-            <v>0.49999999999999994</v>
-          </cell>
-          <cell r="D16">
-            <v>21.650635094610969</v>
-          </cell>
-          <cell r="E16">
-            <v>12.499999999999998</v>
-          </cell>
-          <cell r="F16">
-            <v>10.825317547305485</v>
-          </cell>
-          <cell r="G16">
-            <v>6.2499999999999991</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>6.1257422745431001E-17</v>
-          </cell>
-          <cell r="C17">
-            <v>1</v>
-          </cell>
-          <cell r="D17">
-            <v>1.531435568635775E-15</v>
-          </cell>
-          <cell r="E17">
-            <v>25</v>
-          </cell>
-          <cell r="F17">
-            <v>9.1886134118146501E-16</v>
-          </cell>
-          <cell r="G17">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>-0.86602540378443871</v>
-          </cell>
-          <cell r="C18">
-            <v>0.49999999999999994</v>
-          </cell>
-          <cell r="D18">
-            <v>-21.650635094610969</v>
-          </cell>
-          <cell r="E18">
-            <v>12.499999999999998</v>
-          </cell>
-          <cell r="F18">
-            <v>-19.48557158514987</v>
-          </cell>
-          <cell r="G18">
-            <v>11.249999999999998</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>-0.8660254037844386</v>
-          </cell>
-          <cell r="C19">
-            <v>-0.50000000000000011</v>
-          </cell>
-          <cell r="D19">
-            <v>-21.650635094610966</v>
-          </cell>
-          <cell r="E19">
-            <v>-12.500000000000004</v>
-          </cell>
-          <cell r="F19">
-            <v>-17.320508075688771</v>
-          </cell>
-          <cell r="G19">
-            <v>-10.000000000000002</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>-1.83772268236293E-16</v>
-          </cell>
-          <cell r="C20">
-            <v>-1</v>
-          </cell>
-          <cell r="D20">
-            <v>-4.594306705907325E-15</v>
-          </cell>
-          <cell r="E20">
-            <v>-25</v>
-          </cell>
-          <cell r="F20">
-            <v>-2.756584023544395E-15</v>
-          </cell>
-          <cell r="G20">
-            <v>-15</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>0.86602540378443837</v>
-          </cell>
-          <cell r="C21">
-            <v>-0.50000000000000044</v>
-          </cell>
-          <cell r="D21">
-            <v>21.650635094610958</v>
-          </cell>
-          <cell r="E21">
-            <v>-12.500000000000011</v>
-          </cell>
-          <cell r="F21">
-            <v>15.155444566227672</v>
-          </cell>
-          <cell r="G21">
-            <v>-8.7500000000000071</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>0.86602540378443871</v>
-          </cell>
-          <cell r="C22">
-            <v>0.49999999999999994</v>
-          </cell>
-          <cell r="D22">
-            <v>21.650635094610969</v>
-          </cell>
-          <cell r="E22">
-            <v>12.499999999999998</v>
-          </cell>
-          <cell r="F22">
-            <v>10.825317547305485</v>
-          </cell>
-          <cell r="G22">
-            <v>6.2499999999999991</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25" t="str">
-            <v>Point 1</v>
-          </cell>
-          <cell r="G25" t="str">
-            <v>Intercept 1</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>L</v>
-          </cell>
-          <cell r="B26">
-            <v>0</v>
-          </cell>
-          <cell r="C26">
-            <v>0</v>
-          </cell>
-          <cell r="F26">
-            <v>18.186533479473209</v>
-          </cell>
-          <cell r="G26">
-            <v>13.601039995332528</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>64.9519052838329</v>
-          </cell>
-          <cell r="C27">
-            <v>37.499999999999993</v>
-          </cell>
-          <cell r="F27">
-            <v>-4.5000000000000071</v>
-          </cell>
-          <cell r="G27">
-            <v>-3.3653846153846207</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="B28">
-            <v>0</v>
-          </cell>
-          <cell r="C28">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>4.594306705907325E-15</v>
-          </cell>
-          <cell r="C29">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>F</v>
-          </cell>
-          <cell r="B30">
-            <v>0</v>
-          </cell>
-          <cell r="C30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>-64.9519052838329</v>
-          </cell>
-          <cell r="C31">
-            <v>37.499999999999993</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>D</v>
-          </cell>
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-          <cell r="C32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>-64.9519052838329</v>
-          </cell>
-          <cell r="C33">
-            <v>-37.500000000000014</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>G</v>
-          </cell>
-          <cell r="B34">
-            <v>0</v>
-          </cell>
-          <cell r="C34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>-1.3782920117721975E-14</v>
-          </cell>
-          <cell r="C35">
-            <v>-75</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>W</v>
-          </cell>
-          <cell r="B36">
-            <v>0</v>
-          </cell>
-          <cell r="C36">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>64.951905283832872</v>
-          </cell>
-          <cell r="C37">
-            <v>-37.500000000000028</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>Target 1</v>
-          </cell>
-          <cell r="B38">
-            <v>0</v>
-          </cell>
-          <cell r="C38">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>54.559600438419622</v>
-          </cell>
-          <cell r="C39">
-            <v>-13.500000000000021</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3744,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3760,15 +3427,16 @@
     <col min="13" max="13" width="10.5703125" style="1" customWidth="1"/>
     <col min="14" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="8.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" style="1" customWidth="1"/>
     <col min="21" max="24" width="9.140625" style="2"/>
     <col min="25" max="26" width="8.85546875" style="2" customWidth="1"/>
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
         <v>43</v>
       </c>
@@ -3778,13 +3446,8 @@
       <c r="D1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
     </row>
-    <row r="2" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -3797,16 +3460,8 @@
       <c r="D2" s="15">
         <v>1</v>
       </c>
-      <c r="W2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="47">
-        <f>IF($F$59&gt;$G$59,$F$59-$G$59,0)</f>
-        <v>2.396336441245893</v>
-      </c>
-      <c r="Y2" s="48"/>
     </row>
-    <row r="3" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -3820,37 +3475,17 @@
       <c r="D3" s="15">
         <v>10</v>
       </c>
-      <c r="W3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" s="49">
-        <f>IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$M$5))*100</f>
-        <v>0.23934675191678023</v>
-      </c>
-      <c r="Y3" s="50" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="4" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="23" t="s">
+    <row r="4" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="L4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4" s="51">
-        <f>IF(X3=0,100000000,100/X3)</f>
-        <v>417.8038732473359</v>
-      </c>
-      <c r="Y4" s="50" t="s">
-        <v>53</v>
+      <c r="I4" s="58"/>
+      <c r="M4" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
@@ -3872,30 +3507,24 @@
       <c r="J5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="18">
-        <v>1000</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5" s="49">
-        <f>X4/20</f>
-        <v>20.890193662366794</v>
-      </c>
-      <c r="Y5" s="50" t="s">
-        <v>45</v>
-      </c>
+      <c r="L5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="12">
+        <f>ROUNDDOWN(IF(L5=$F$68,$J$60,IF(L5=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="S5" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" s="58"/>
     </row>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3914,7 +3543,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="21">
-        <f>F6*$C$3/$D$3</f>
+        <f t="shared" ref="G6:G11" si="0">F6*$C$3/$D$3</f>
         <v>12.5</v>
       </c>
       <c r="H6" s="20">
@@ -3927,24 +3556,32 @@
         <f>PRODUCT(H6:I6)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="18">
-        <v>10</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" s="12">
-        <f>ROUNDDOWN(IF(R6=$F$68,$J$60,IF(R6=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$M$6))*$M$8,0)</f>
+      <c r="L6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="12">
+        <f>ROUNDDOWN(IF(L6=$F$68,$J$60,IF(L6=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
         <v>0</v>
       </c>
+      <c r="O6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="42">
+        <f>IF($F$59&gt;$G$59,$F$59-$G$59,0)</f>
+        <v>2.396336441245893</v>
+      </c>
+      <c r="Q6" s="43"/>
+      <c r="S6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -3953,7 +3590,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="16">
-        <f t="shared" ref="C7:C11" si="0">B7*PI()/180</f>
+        <f t="shared" ref="C7:C11" si="1">B7*PI()/180</f>
         <v>1.5707963267948966</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -3963,7 +3600,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="21">
-        <f>F7*$C$3/$D$3</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H7" s="20">
@@ -3973,36 +3610,46 @@
         <v>4</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" ref="J7:J11" si="1">PRODUCT(H7:I7)</f>
+        <f t="shared" ref="J7:J11" si="2">PRODUCT(H7:I7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="18">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="S7" s="12">
-        <f>ROUNDDOWN(IF(R7=$F$68,$J$60,IF(R7=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$M$6))*$M$8,0)</f>
-        <v>0</v>
+      <c r="L7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="12">
+        <f>ROUNDDOWN(IF(L7=$F$68,$J$60,IF(L7=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <v>15</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="44">
+        <f>IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$6))*100</f>
+        <v>0.23934675191678023</v>
+      </c>
+      <c r="Q7" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="18">
+        <v>10</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="15">
-        <f t="shared" ref="B8:B11" si="2">B7+60</f>
+        <f t="shared" ref="B8:B11" si="3">B7+60</f>
         <v>150</v>
       </c>
       <c r="C8" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6179938779914944</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -4012,7 +3659,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="21">
-        <f>F8*$C$3/$D$3</f>
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="H8" s="20">
@@ -4022,34 +3669,46 @@
         <v>5</v>
       </c>
       <c r="J8" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" s="58">
-        <f>100*M7</f>
-        <v>100</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="12">
-        <f>ROUNDDOWN(IF(R8=$F$68,$J$60,IF(R8=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$M$6))*$M$8,0)</f>
-        <v>15</v>
+      <c r="L8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="12">
+        <f>ROUNDDOWN(IF(L8=$F$68,$J$60,IF(L8=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <v>5</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="46">
+        <f>IF(P7=0,100000000,100/P7)</f>
+        <v>417.8038732473359</v>
+      </c>
+      <c r="Q8" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" s="18">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="C9" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6651914291880923</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -4059,7 +3718,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="21">
-        <f>F9*$C$3/$D$3</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="H9" s="20">
@@ -4069,27 +3728,44 @@
         <v>3</v>
       </c>
       <c r="J9" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="S9" s="12">
-        <f>ROUNDDOWN(IF(R9=$F$68,$J$60,IF(R9=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$M$6))*$M$8,0)</f>
-        <v>5</v>
+      <c r="L9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="12">
+        <f>ROUNDDOWN(IF(L9=$F$68,$J$60,IF(L9=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="44">
+        <f>P8/20</f>
+        <v>20.890193662366794</v>
+      </c>
+      <c r="Q9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="49">
+        <f>100*T8</f>
+        <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="C10" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7123889803846897</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -4099,7 +3775,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="21">
-        <f>F10*$C$3/$D$3</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H10" s="20">
@@ -4109,27 +3785,27 @@
         <v>2</v>
       </c>
       <c r="J10" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="12">
-        <f>ROUNDDOWN(IF(R10=$F$68,$J$60,IF(R10=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$M$6))*$M$8,0)</f>
+      <c r="L10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="12">
+        <f>ROUNDDOWN(IF(L10=$F$68,$J$60,IF(L10=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="C11" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7595865315812871</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -4139,7 +3815,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="21">
-        <f>F11*$C$3/$D$3</f>
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
       <c r="H11" s="20">
@@ -4149,38 +3825,35 @@
         <v>4</v>
       </c>
       <c r="J11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="S11" s="12">
-        <f>ROUNDDOWN(IF(R11=$F$68,$J$60,IF(R11=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$M$6))*$M$8,0)</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="22:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4194,55 +3867,55 @@
     <row r="43" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L44" s="2"/>
-      <c r="M44" s="34" t="s">
+      <c r="M44" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="N44" s="36"/>
-      <c r="O44" s="34" t="s">
+      <c r="N44" s="57"/>
+      <c r="O44" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="36"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="57"/>
     </row>
     <row r="45" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23" t="s">
+      <c r="C45" s="58"/>
+      <c r="D45" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23" t="s">
+      <c r="E45" s="58"/>
+      <c r="F45" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23" t="s">
+      <c r="G45" s="58"/>
+      <c r="H45" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="23"/>
-      <c r="L45" s="37" t="s">
+      <c r="I45" s="58"/>
+      <c r="L45" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M45" s="37" t="s">
+      <c r="M45" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="N45" s="37" t="s">
+      <c r="N45" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="O45" s="37" t="s">
+      <c r="O45" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="P45" s="37" t="s">
+      <c r="P45" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="Q45" s="37" t="s">
+      <c r="Q45" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="S45" s="52" t="s">
+      <c r="S45" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="T45" s="53"/>
+      <c r="T45" s="51"/>
     </row>
     <row r="46" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
@@ -4269,33 +3942,33 @@
       <c r="I46" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L46" s="38">
-        <v>0</v>
-      </c>
-      <c r="M46" s="46">
-        <f>$M$8</f>
+      <c r="L46" s="59">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M46" s="41">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N46" s="46">
-        <f>(1-EXP(-L46/$M$6))*$M$8</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="44">
-        <f>1-EXP(-L46/$M$5)</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="40">
+      <c r="N46" s="41">
+        <f>(1-EXP(-L46/$T$7))*$T$9</f>
+        <v>9.9999949998430537E-5</v>
+      </c>
+      <c r="O46" s="39">
+        <f>1-EXP(-L46/$T$6)</f>
+        <v>9.9999999392252903E-9</v>
+      </c>
+      <c r="P46" s="35">
         <f>IF(O46=0,10000000000000,1/O46)</f>
-        <v>10000000000000</v>
-      </c>
-      <c r="Q46" s="41">
+        <v>100000000.60774711</v>
+      </c>
+      <c r="Q46" s="36">
         <f>P46/20</f>
-        <v>500000000000</v>
-      </c>
-      <c r="S46" s="37" t="s">
+        <v>5000000.030387355</v>
+      </c>
+      <c r="S46" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="T46" s="37" t="s">
+      <c r="T46" s="32" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4304,64 +3977,64 @@
         <v>7</v>
       </c>
       <c r="B47" s="22">
-        <f>$C$2*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="B47:B53" si="4">$C$2*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>0.86602540378443871</v>
       </c>
       <c r="C47" s="22">
-        <f>$C$2*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="C47:C53" si="5">$C$2*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>0.49999999999999994</v>
       </c>
       <c r="D47" s="22">
-        <f>$C$3*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="D47:D53" si="6">$C$3*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>21.650635094610969</v>
       </c>
       <c r="E47" s="22">
-        <f>$C$3*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="E47:E53" si="7">$C$3*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>12.499999999999998</v>
       </c>
       <c r="F47" s="22">
-        <f>VLOOKUP($A47,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="F47:F53" si="8">VLOOKUP($A47,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>10.825317547305485</v>
       </c>
       <c r="G47" s="22">
-        <f>VLOOKUP($A47,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="G47:G53" si="9">VLOOKUP($A47,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>6.2499999999999991</v>
       </c>
       <c r="H47" s="22">
-        <f>VLOOKUP($A47,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="H47:H53" si="10">VLOOKUP($A47,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="I47" s="22">
-        <f>VLOOKUP($A47,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="I47:I53" si="11">VLOOKUP($A47,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="L47" s="38">
+      <c r="L47" s="33">
         <v>1</v>
       </c>
-      <c r="M47" s="38">
-        <f>$M$8</f>
+      <c r="M47" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N47" s="38">
-        <f>(1-EXP(-L47/$M$6))*$M$8</f>
+      <c r="N47" s="33">
+        <f>(1-EXP(-L47/$T$7))*$T$9</f>
         <v>9.5162581964040491</v>
       </c>
-      <c r="O47" s="44">
-        <f>1-EXP(-L47/$M$5)</f>
+      <c r="O47" s="39">
+        <f>1-EXP(-L47/$T$6)</f>
         <v>9.9950016662497809E-4</v>
       </c>
-      <c r="P47" s="40">
-        <f t="shared" ref="P47:P70" si="3">1/O47</f>
+      <c r="P47" s="35">
+        <f t="shared" ref="P47:P70" si="12">1/O47</f>
         <v>1000.5000833333622</v>
       </c>
-      <c r="Q47" s="41">
-        <f t="shared" ref="Q47:Q71" si="4">P47/20</f>
+      <c r="Q47" s="36">
+        <f t="shared" ref="Q47:Q71" si="13">P47/20</f>
         <v>50.025004166668111</v>
       </c>
-      <c r="S47" s="54">
+      <c r="S47" s="47">
         <v>0</v>
       </c>
-      <c r="T47" s="54">
+      <c r="T47" s="47">
         <f>T48</f>
         <v>21.308390039906666</v>
       </c>
@@ -4371,66 +4044,66 @@
         <v>5</v>
       </c>
       <c r="B48" s="22">
-        <f>$C$2*COS(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="4"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C48" s="22">
-        <f>$C$2*SIN(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D48" s="22">
-        <f>$C$3*COS(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="6"/>
         <v>1.531435568635775E-15</v>
       </c>
       <c r="E48" s="22">
-        <f>$C$3*SIN(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="F48" s="22">
-        <f>VLOOKUP($A48,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="8"/>
         <v>9.1886134118146501E-16</v>
       </c>
       <c r="G48" s="22">
-        <f>VLOOKUP($A48,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="H48" s="22">
-        <f>VLOOKUP($A48,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I48" s="22">
-        <f>VLOOKUP($A48,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A48,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L48" s="38">
+      <c r="L48" s="33">
         <v>2</v>
       </c>
-      <c r="M48" s="38">
-        <f>$M$8</f>
+      <c r="M48" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N48" s="38">
-        <f>(1-EXP(-L48/$M$6))*$M$8</f>
+      <c r="N48" s="33">
+        <f>(1-EXP(-L48/$T$7))*$T$9</f>
         <v>18.126924692201818</v>
       </c>
-      <c r="O48" s="44">
-        <f>1-EXP(-L48/$M$5)</f>
+      <c r="O48" s="39">
+        <f>1-EXP(-L48/$T$6)</f>
         <v>1.998001332666921E-3</v>
       </c>
-      <c r="P48" s="40">
-        <f t="shared" si="3"/>
+      <c r="P48" s="35">
+        <f t="shared" si="12"/>
         <v>500.50016666665863</v>
       </c>
-      <c r="Q48" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q48" s="36">
+        <f t="shared" si="13"/>
         <v>25.025008333332931</v>
       </c>
-      <c r="S48" s="40">
+      <c r="S48" s="35">
         <f>J57</f>
         <v>2.396336441245893</v>
       </c>
-      <c r="T48" s="40">
-        <f>(1-EXP(-S48/$M$6))*$M$8</f>
+      <c r="T48" s="35">
+        <f>(1-EXP(-S48/$T$7))*$T$9</f>
         <v>21.308390039906666</v>
       </c>
     </row>
@@ -4439,65 +4112,65 @@
         <v>2</v>
       </c>
       <c r="B49" s="22">
-        <f>$C$2*COS(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="4"/>
         <v>-0.86602540378443871</v>
       </c>
       <c r="C49" s="22">
-        <f>$C$2*SIN(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D49" s="22">
-        <f>$C$3*COS(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="6"/>
         <v>-21.650635094610969</v>
       </c>
       <c r="E49" s="22">
-        <f>$C$3*SIN(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>12.499999999999998</v>
       </c>
       <c r="F49" s="22">
-        <f>VLOOKUP($A49,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="8"/>
         <v>-19.48557158514987</v>
       </c>
       <c r="G49" s="22">
-        <f>VLOOKUP($A49,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>11.249999999999998</v>
       </c>
       <c r="H49" s="22">
-        <f>VLOOKUP($A49,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="10"/>
         <v>-12.99038105676658</v>
       </c>
       <c r="I49" s="22">
-        <f>VLOOKUP($A49,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A49,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>7.4999999999999991</v>
       </c>
-      <c r="L49" s="38">
+      <c r="L49" s="33">
         <v>3</v>
       </c>
-      <c r="M49" s="38">
-        <f>$M$8</f>
+      <c r="M49" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N49" s="38">
-        <f>(1-EXP(-L49/$M$6))*$M$8</f>
+      <c r="N49" s="33">
+        <f>(1-EXP(-L49/$T$7))*$T$9</f>
         <v>25.918177931828211</v>
       </c>
-      <c r="O49" s="44">
-        <f>1-EXP(-L49/$M$5)</f>
+      <c r="O49" s="39">
+        <f>1-EXP(-L49/$T$6)</f>
         <v>2.9955044966269995E-3</v>
       </c>
-      <c r="P49" s="40">
-        <f t="shared" si="3"/>
+      <c r="P49" s="35">
+        <f t="shared" si="12"/>
         <v>333.83358333329858</v>
       </c>
-      <c r="Q49" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q49" s="36">
+        <f t="shared" si="13"/>
         <v>16.69167916666493</v>
       </c>
-      <c r="S49" s="42">
+      <c r="S49" s="37">
         <f>S48</f>
         <v>2.396336441245893</v>
       </c>
-      <c r="T49" s="42">
+      <c r="T49" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4506,58 +4179,58 @@
         <v>6</v>
       </c>
       <c r="B50" s="22">
-        <f>$C$2*COS(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="4"/>
         <v>-0.8660254037844386</v>
       </c>
       <c r="C50" s="22">
-        <f>$C$2*SIN(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>-0.50000000000000011</v>
       </c>
       <c r="D50" s="22">
-        <f>$C$3*COS(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="6"/>
         <v>-21.650635094610966</v>
       </c>
       <c r="E50" s="22">
-        <f>$C$3*SIN(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>-12.500000000000004</v>
       </c>
       <c r="F50" s="22">
-        <f>VLOOKUP($A50,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="8"/>
         <v>-10.825317547305483</v>
       </c>
       <c r="G50" s="22">
-        <f>VLOOKUP($A50,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>-6.2500000000000018</v>
       </c>
       <c r="H50" s="22">
-        <f>VLOOKUP($A50,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="10"/>
         <v>-5.196152422706632</v>
       </c>
       <c r="I50" s="22">
-        <f>VLOOKUP($A50,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A50,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>-3.0000000000000009</v>
       </c>
-      <c r="L50" s="38">
+      <c r="L50" s="33">
         <v>4</v>
       </c>
-      <c r="M50" s="38">
-        <f>$M$8</f>
+      <c r="M50" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N50" s="38">
-        <f>(1-EXP(-L50/$M$6))*$M$8</f>
+      <c r="N50" s="33">
+        <f>(1-EXP(-L50/$T$7))*$T$9</f>
         <v>32.967995396436066</v>
       </c>
-      <c r="O50" s="44">
-        <f>1-EXP(-L50/$M$5)</f>
+      <c r="O50" s="39">
+        <f>1-EXP(-L50/$T$6)</f>
         <v>3.9920106560085156E-3</v>
       </c>
-      <c r="P50" s="40">
-        <f t="shared" si="3"/>
+      <c r="P50" s="35">
+        <f t="shared" si="12"/>
         <v>250.50033333324521</v>
       </c>
-      <c r="Q50" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q50" s="36">
+        <f t="shared" si="13"/>
         <v>12.52501666666226</v>
       </c>
       <c r="S50" s="4"/>
@@ -4568,128 +4241,128 @@
         <v>4</v>
       </c>
       <c r="B51" s="22">
-        <f>$C$2*COS(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="4"/>
         <v>-1.83772268236293E-16</v>
       </c>
       <c r="C51" s="22">
-        <f>$C$2*SIN(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="D51" s="22">
-        <f>$C$3*COS(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="6"/>
         <v>-4.594306705907325E-15</v>
       </c>
       <c r="E51" s="22">
-        <f>$C$3*SIN(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>-25</v>
       </c>
       <c r="F51" s="22">
-        <f>VLOOKUP($A51,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="8"/>
         <v>-2.756584023544395E-15</v>
       </c>
       <c r="G51" s="22">
-        <f>VLOOKUP($A51,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>-15</v>
       </c>
       <c r="H51" s="22">
-        <f>VLOOKUP($A51,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I51" s="22">
-        <f>VLOOKUP($A51,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A51,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L51" s="38">
+      <c r="L51" s="33">
         <v>5</v>
       </c>
-      <c r="M51" s="38">
-        <f>$M$8</f>
+      <c r="M51" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N51" s="38">
-        <f>(1-EXP(-L51/$M$6))*$M$8</f>
+      <c r="N51" s="33">
+        <f>(1-EXP(-L51/$T$7))*$T$9</f>
         <v>39.346934028736655</v>
       </c>
-      <c r="O51" s="44">
-        <f>1-EXP(-L51/$M$5)</f>
+      <c r="O51" s="39">
+        <f>1-EXP(-L51/$T$6)</f>
         <v>4.9875208073176802E-3</v>
       </c>
-      <c r="P51" s="40">
-        <f t="shared" si="3"/>
+      <c r="P51" s="35">
+        <f t="shared" si="12"/>
         <v>200.50041666649332</v>
       </c>
-      <c r="Q51" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q51" s="36">
+        <f t="shared" si="13"/>
         <v>10.025020833324666</v>
       </c>
-      <c r="S51" s="55" t="s">
+      <c r="S51" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="T51" s="56"/>
+      <c r="T51" s="53"/>
     </row>
     <row r="52" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="22">
-        <f>$C$2*COS(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="4"/>
         <v>0.86602540378443837</v>
       </c>
       <c r="C52" s="22">
-        <f>$C$2*SIN(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>-0.50000000000000044</v>
       </c>
       <c r="D52" s="22">
-        <f>$C$3*COS(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="6"/>
         <v>21.650635094610958</v>
       </c>
       <c r="E52" s="22">
-        <f>$C$3*SIN(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>-12.500000000000011</v>
       </c>
       <c r="F52" s="22">
-        <f>VLOOKUP($A52,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="8"/>
         <v>15.155444566227672</v>
       </c>
       <c r="G52" s="22">
-        <f>VLOOKUP($A52,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>-8.7500000000000071</v>
       </c>
       <c r="H52" s="22">
-        <f>VLOOKUP($A52,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I52" s="22">
-        <f>VLOOKUP($A52,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A52,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L52" s="38">
+      <c r="L52" s="33">
         <v>6</v>
       </c>
-      <c r="M52" s="38">
-        <f>$M$8</f>
+      <c r="M52" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N52" s="38">
-        <f>(1-EXP(-L52/$M$6))*$M$8</f>
+      <c r="N52" s="33">
+        <f>(1-EXP(-L52/$T$7))*$T$9</f>
         <v>45.118836390597359</v>
       </c>
-      <c r="O52" s="44">
-        <f>1-EXP(-L52/$M$5)</f>
+      <c r="O52" s="39">
+        <f>1-EXP(-L52/$T$6)</f>
         <v>5.9820359460647232E-3</v>
       </c>
-      <c r="P52" s="40">
-        <f t="shared" si="3"/>
+      <c r="P52" s="35">
+        <f t="shared" si="12"/>
         <v>167.167166666367</v>
       </c>
-      <c r="Q52" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q52" s="36">
+        <f t="shared" si="13"/>
         <v>8.3583583333183498</v>
       </c>
-      <c r="S52" s="57" t="s">
+      <c r="S52" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="T52" s="57" t="s">
+      <c r="T52" s="48" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4698,64 +4371,64 @@
         <v>7</v>
       </c>
       <c r="B53" s="22">
-        <f>$C$2*COS(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="4"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C53" s="22">
-        <f>$C$2*SIN(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="5"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D53" s="22">
-        <f>$C$3*COS(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="6"/>
         <v>21.650635094610969</v>
       </c>
       <c r="E53" s="22">
-        <f>$C$3*SIN(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="7"/>
         <v>12.499999999999998</v>
       </c>
       <c r="F53" s="22">
-        <f>VLOOKUP($A53,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="8"/>
         <v>10.825317547305485</v>
       </c>
       <c r="G53" s="22">
-        <f>VLOOKUP($A53,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="9"/>
         <v>6.2499999999999991</v>
       </c>
       <c r="H53" s="22">
-        <f>VLOOKUP($A53,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I53" s="22">
-        <f>VLOOKUP($A53,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A53,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L53" s="38">
+      <c r="L53" s="33">
         <v>7</v>
       </c>
-      <c r="M53" s="38">
-        <f>$M$8</f>
+      <c r="M53" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N53" s="38">
-        <f>(1-EXP(-L53/$M$6))*$M$8</f>
+      <c r="N53" s="33">
+        <f>(1-EXP(-L53/$T$7))*$T$9</f>
         <v>50.341469620859044</v>
       </c>
-      <c r="O53" s="44">
-        <f>1-EXP(-L53/$M$5)</f>
+      <c r="O53" s="39">
+        <f>1-EXP(-L53/$T$6)</f>
         <v>6.9755570667648925E-3</v>
       </c>
-      <c r="P53" s="40">
-        <f t="shared" si="3"/>
+      <c r="P53" s="35">
+        <f t="shared" si="12"/>
         <v>143.35772618999985</v>
       </c>
-      <c r="Q53" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q53" s="36">
+        <f t="shared" si="13"/>
         <v>7.1678863094999929</v>
       </c>
-      <c r="S53" s="54">
+      <c r="S53" s="47">
         <v>0</v>
       </c>
-      <c r="T53" s="54">
+      <c r="T53" s="47">
         <f>T54</f>
         <v>20.890193662366794</v>
       </c>
@@ -4772,67 +4445,67 @@
         <f>SUM(I47:I52)</f>
         <v>4.4999999999999982</v>
       </c>
-      <c r="L54" s="38">
+      <c r="L54" s="33">
         <v>8</v>
       </c>
-      <c r="M54" s="38">
-        <f>$M$8</f>
+      <c r="M54" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N54" s="38">
-        <f>(1-EXP(-L54/$M$6))*$M$8</f>
+      <c r="N54" s="33">
+        <f>(1-EXP(-L54/$T$7))*$T$9</f>
         <v>55.067103588277845</v>
       </c>
-      <c r="O54" s="44">
-        <f>1-EXP(-L54/$M$5)</f>
+      <c r="O54" s="39">
+        <f>1-EXP(-L54/$T$6)</f>
         <v>7.9680851629393423E-3</v>
       </c>
-      <c r="P54" s="40">
-        <f t="shared" si="3"/>
+      <c r="P54" s="35">
+        <f t="shared" si="12"/>
         <v>125.50066666595599</v>
       </c>
-      <c r="Q54" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q54" s="36">
+        <f t="shared" si="13"/>
         <v>6.2750333332977997</v>
       </c>
-      <c r="S54" s="40">
+      <c r="S54" s="35">
         <f>J57</f>
         <v>2.396336441245893</v>
       </c>
-      <c r="T54" s="40">
-        <f>1/(20*(1-EXP(-S54/$M$5)))</f>
+      <c r="T54" s="35">
+        <f>1/(20*(1-EXP(-S54/$T$6)))</f>
         <v>20.890193662366794</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L55" s="38">
+      <c r="L55" s="33">
         <v>9</v>
       </c>
-      <c r="M55" s="38">
-        <f>$M$8</f>
+      <c r="M55" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N55" s="38">
-        <f>(1-EXP(-L55/$M$6))*$M$8</f>
+      <c r="N55" s="33">
+        <f>(1-EXP(-L55/$T$7))*$T$9</f>
         <v>59.343034025940092</v>
       </c>
-      <c r="O55" s="44">
-        <f>1-EXP(-L55/$M$5)</f>
+      <c r="O55" s="39">
+        <f>1-EXP(-L55/$T$6)</f>
         <v>8.9596212271163544E-3</v>
       </c>
-      <c r="P55" s="40">
-        <f t="shared" si="3"/>
+      <c r="P55" s="35">
+        <f t="shared" si="12"/>
         <v>111.6118611100984</v>
       </c>
-      <c r="Q55" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q55" s="36">
+        <f t="shared" si="13"/>
         <v>5.5805930555049201</v>
       </c>
-      <c r="S55" s="42">
+      <c r="S55" s="37">
         <f>S54</f>
         <v>2.396336441245893</v>
       </c>
-      <c r="T55" s="42">
+      <c r="T55" s="37">
         <v>0</v>
       </c>
     </row>
@@ -4856,38 +4529,38 @@
         <f>F59&lt;=G59</f>
         <v>0</v>
       </c>
-      <c r="L56" s="38">
+      <c r="L56" s="33">
         <v>10</v>
       </c>
-      <c r="M56" s="38">
-        <f>$M$8</f>
+      <c r="M56" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N56" s="38">
-        <f>(1-EXP(-L56/$M$6))*$M$8</f>
+      <c r="N56" s="33">
+        <f>(1-EXP(-L56/$T$7))*$T$9</f>
         <v>63.212055882855765</v>
       </c>
-      <c r="O56" s="44">
-        <f>1-EXP(-L56/$M$5)</f>
+      <c r="O56" s="39">
+        <f>1-EXP(-L56/$T$6)</f>
         <v>9.9501662508318933E-3</v>
       </c>
-      <c r="P56" s="40">
-        <f t="shared" si="3"/>
+      <c r="P56" s="35">
+        <f t="shared" si="12"/>
         <v>100.50083333194499</v>
       </c>
-      <c r="Q56" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q56" s="36">
+        <f t="shared" si="13"/>
         <v>5.0250416665972493</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="24">
         <v>0</v>
       </c>
-      <c r="C57" s="26">
+      <c r="C57" s="24">
         <v>0</v>
       </c>
       <c r="E57" s="19" t="s">
@@ -4904,42 +4577,42 @@
       <c r="I57" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J57" s="26">
+      <c r="J57" s="24">
         <f>IF(J56,0,F59-G59)</f>
         <v>2.396336441245893</v>
       </c>
-      <c r="L57" s="38">
+      <c r="L57" s="33">
         <v>11</v>
       </c>
-      <c r="M57" s="38">
-        <f>$M$8</f>
+      <c r="M57" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N57" s="38">
-        <f>(1-EXP(-L57/$M$6))*$M$8</f>
+      <c r="N57" s="33">
+        <f>(1-EXP(-L57/$T$7))*$T$9</f>
         <v>66.712891630192047</v>
       </c>
-      <c r="O57" s="44">
-        <f>1-EXP(-L57/$M$5)</f>
+      <c r="O57" s="39">
+        <f>1-EXP(-L57/$T$6)</f>
         <v>1.0939721224631271E-2</v>
       </c>
-      <c r="P57" s="40">
-        <f t="shared" si="3"/>
+      <c r="P57" s="35">
+        <f t="shared" si="12"/>
         <v>91.410007573909226</v>
       </c>
-      <c r="Q57" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q57" s="36">
+        <f t="shared" si="13"/>
         <v>4.5705003786954617</v>
       </c>
       <c r="R57" s="2"/>
     </row>
     <row r="58" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26">
+      <c r="A58" s="54"/>
+      <c r="B58" s="24">
         <f>$B$72*VLOOKUP($A57,$A$47:$G$53,4,FALSE)</f>
         <v>108.25317547305485</v>
       </c>
-      <c r="C58" s="26">
+      <c r="C58" s="24">
         <f>$B$72*VLOOKUP($A57,$A$47:$G$53,5,FALSE)</f>
         <v>62.499999999999993</v>
       </c>
@@ -4961,38 +4634,38 @@
         <f>VLOOKUP(F68,$A$6:$C$11,2,FALSE)-VLOOKUP(F69,$A$6:$C$11,2,FALSE) + IF(VLOOKUP(F68,$A$6:$C$11,2,FALSE)-VLOOKUP(F69,$A$6:$C$11,2,FALSE)&gt;180,-360,IF(VLOOKUP(F68,$A$6:$C$11,2,FALSE)-VLOOKUP(F69,$A$6:$C$11,2,FALSE)&lt;=-180,360,0))</f>
         <v>60</v>
       </c>
-      <c r="L58" s="38">
+      <c r="L58" s="33">
         <v>12</v>
       </c>
-      <c r="M58" s="38">
-        <f>$M$8</f>
+      <c r="M58" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N58" s="38">
-        <f>(1-EXP(-L58/$M$6))*$M$8</f>
+      <c r="N58" s="33">
+        <f>(1-EXP(-L58/$T$7))*$T$9</f>
         <v>69.880578808779774</v>
       </c>
-      <c r="O58" s="44">
-        <f>1-EXP(-L58/$M$5)</f>
+      <c r="O58" s="39">
+        <f>1-EXP(-L58/$T$6)</f>
         <v>1.1928287138069482E-2</v>
       </c>
-      <c r="P58" s="40">
-        <f t="shared" si="3"/>
+      <c r="P58" s="35">
+        <f t="shared" si="12"/>
         <v>83.834333330933191</v>
       </c>
-      <c r="Q58" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q58" s="36">
+        <f t="shared" si="13"/>
         <v>4.1917166665466592</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="24">
         <v>0</v>
       </c>
-      <c r="C59" s="26">
+      <c r="C59" s="24">
         <v>0</v>
       </c>
       <c r="E59" s="19" t="s">
@@ -5009,41 +4682,41 @@
       <c r="I59" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="J59" s="26">
+      <c r="J59" s="24">
         <f>VLOOKUP(F68,$A$6:$C$11,2,FALSE)-F61 + IF(VLOOKUP(F68,$A$6:$C$11,2,FALSE)-F61&gt;180,-360,IF(VLOOKUP(F68,$A$6:$C$11,2,FALSE)-F61&lt;=-180,360,0))</f>
         <v>43.897886248013947</v>
       </c>
-      <c r="L59" s="38">
+      <c r="L59" s="33">
         <v>13</v>
       </c>
-      <c r="M59" s="38">
-        <f>$M$8</f>
+      <c r="M59" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N59" s="38">
-        <f>(1-EXP(-L59/$M$6))*$M$8</f>
+      <c r="N59" s="33">
+        <f>(1-EXP(-L59/$T$7))*$T$9</f>
         <v>72.746820696598746</v>
       </c>
-      <c r="O59" s="44">
-        <f>1-EXP(-L59/$M$5)</f>
+      <c r="O59" s="39">
+        <f>1-EXP(-L59/$T$6)</f>
         <v>1.2915864979712421E-2</v>
       </c>
-      <c r="P59" s="40">
-        <f t="shared" si="3"/>
+      <c r="P59" s="35">
+        <f t="shared" si="12"/>
         <v>77.424160253358849</v>
       </c>
-      <c r="Q59" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q59" s="36">
+        <f t="shared" si="13"/>
         <v>3.8712080126679425</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26">
+      <c r="A60" s="54"/>
+      <c r="B60" s="24">
         <f>$B$72*VLOOKUP($A59,$A$47:$G$53,4,FALSE)</f>
         <v>7.6571778431788751E-15</v>
       </c>
-      <c r="C60" s="26">
+      <c r="C60" s="24">
         <f>$B$72*VLOOKUP($A59,$A$47:$G$53,5,FALSE)</f>
         <v>125</v>
       </c>
@@ -5065,38 +4738,38 @@
         <f>1-J59/J58</f>
         <v>0.26836856253310093</v>
       </c>
-      <c r="L60" s="38">
+      <c r="L60" s="33">
         <v>14</v>
       </c>
-      <c r="M60" s="38">
-        <f>$M$8</f>
+      <c r="M60" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N60" s="38">
-        <f>(1-EXP(-L60/$M$6))*$M$8</f>
+      <c r="N60" s="33">
+        <f>(1-EXP(-L60/$T$7))*$T$9</f>
         <v>75.340303605839352</v>
       </c>
-      <c r="O60" s="44">
-        <f>1-EXP(-L60/$M$5)</f>
+      <c r="O60" s="39">
+        <f>1-EXP(-L60/$T$6)</f>
         <v>1.3902455737138109E-2</v>
       </c>
-      <c r="P60" s="40">
-        <f t="shared" si="3"/>
+      <c r="P60" s="35">
+        <f t="shared" si="12"/>
         <v>71.929738091426941</v>
       </c>
-      <c r="Q60" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q60" s="36">
+        <f t="shared" si="13"/>
         <v>3.5964869045713472</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="24">
         <v>0</v>
       </c>
-      <c r="C61" s="26">
+      <c r="C61" s="24">
         <v>0</v>
       </c>
       <c r="E61" s="19" t="s">
@@ -5117,320 +4790,320 @@
         <f>1-J60</f>
         <v>0.73163143746689907</v>
       </c>
-      <c r="L61" s="38">
+      <c r="L61" s="33">
         <v>15</v>
       </c>
-      <c r="M61" s="38">
-        <f>$M$8</f>
+      <c r="M61" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N61" s="38">
-        <f>(1-EXP(-L61/$M$6))*$M$8</f>
+      <c r="N61" s="33">
+        <f>(1-EXP(-L61/$T$7))*$T$9</f>
         <v>77.686983985157028</v>
       </c>
-      <c r="O61" s="44">
-        <f>1-EXP(-L61/$M$5)</f>
+      <c r="O61" s="39">
+        <f>1-EXP(-L61/$T$6)</f>
         <v>1.4888060396937353E-2</v>
       </c>
-      <c r="P61" s="40">
-        <f t="shared" si="3"/>
+      <c r="P61" s="35">
+        <f t="shared" si="12"/>
         <v>67.167916661979135</v>
       </c>
-      <c r="Q61" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q61" s="36">
+        <f t="shared" si="13"/>
         <v>3.3583958330989567</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26">
+      <c r="A62" s="54"/>
+      <c r="B62" s="24">
         <f>$B$72*VLOOKUP($A61,$A$47:$G$53,4,FALSE)</f>
         <v>-108.25317547305485</v>
       </c>
-      <c r="C62" s="26">
+      <c r="C62" s="24">
         <f>$B$72*VLOOKUP($A61,$A$47:$G$53,5,FALSE)</f>
         <v>62.499999999999993</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E62" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="33" t="b">
-        <f>OR(F$61&lt;=VLOOKUP($E62,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
+      <c r="F62" s="31" t="b">
+        <f t="shared" ref="F62:F67" si="14">OR(F$61&lt;=VLOOKUP($E62,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
         <v>0</v>
       </c>
-      <c r="G62" s="33" t="b">
-        <f>OR(G$61&lt;=VLOOKUP($E62,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
+      <c r="G62" s="31" t="b">
+        <f t="shared" ref="G62:G67" si="15">OR(G$61&lt;=VLOOKUP($E62,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
         <v>0</v>
       </c>
-      <c r="L62" s="38">
+      <c r="L62" s="33">
         <v>16</v>
       </c>
-      <c r="M62" s="38">
-        <f>$M$8</f>
+      <c r="M62" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N62" s="38">
-        <f>(1-EXP(-L62/$M$6))*$M$8</f>
+      <c r="N62" s="33">
+        <f>(1-EXP(-L62/$T$7))*$T$9</f>
         <v>79.810348200534463</v>
       </c>
-      <c r="O62" s="44">
-        <f>1-EXP(-L62/$M$5)</f>
+      <c r="O62" s="39">
+        <f>1-EXP(-L62/$T$6)</f>
         <v>1.5872679944714863E-2</v>
       </c>
-      <c r="P62" s="40">
-        <f t="shared" si="3"/>
+      <c r="P62" s="35">
+        <f t="shared" si="12"/>
         <v>63.001333327644566</v>
       </c>
-      <c r="Q62" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q62" s="36">
+        <f t="shared" si="13"/>
         <v>3.1500666663822283</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63" s="24">
         <v>0</v>
       </c>
-      <c r="C63" s="26">
+      <c r="C63" s="24">
         <v>0</v>
       </c>
-      <c r="E63" s="28" t="s">
+      <c r="E63" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="33" t="b">
-        <f>OR(F$61&lt;=VLOOKUP($E63,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
+      <c r="F63" s="31" t="b">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G63" s="33" t="b">
-        <f>OR(G$61&lt;=VLOOKUP($E63,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
+      <c r="G63" s="31" t="b">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L63" s="38">
+      <c r="L63" s="33">
         <v>17</v>
       </c>
-      <c r="M63" s="38">
-        <f>$M$8</f>
+      <c r="M63" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N63" s="38">
-        <f>(1-EXP(-L63/$M$6))*$M$8</f>
+      <c r="N63" s="33">
+        <f>(1-EXP(-L63/$T$7))*$T$9</f>
         <v>81.731647594726525</v>
       </c>
-      <c r="O63" s="44">
-        <f>1-EXP(-L63/$M$5)</f>
+      <c r="O63" s="39">
+        <f>1-EXP(-L63/$T$6)</f>
         <v>1.6856315365090357E-2</v>
       </c>
-      <c r="P63" s="40">
-        <f t="shared" si="3"/>
+      <c r="P63" s="35">
+        <f t="shared" si="12"/>
         <v>59.324946071607833</v>
       </c>
-      <c r="Q63" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q63" s="36">
+        <f t="shared" si="13"/>
         <v>2.9662473035803916</v>
       </c>
       <c r="X63"/>
     </row>
     <row r="64" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
-      <c r="B64" s="26">
+      <c r="A64" s="54"/>
+      <c r="B64" s="24">
         <f>$B$72*VLOOKUP($A63,$A$47:$G$53,4,FALSE)</f>
         <v>-108.25317547305482</v>
       </c>
-      <c r="C64" s="26">
+      <c r="C64" s="24">
         <f>$B$72*VLOOKUP($A63,$A$47:$G$53,5,FALSE)</f>
         <v>-62.500000000000014</v>
       </c>
-      <c r="E64" s="29" t="s">
+      <c r="E64" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F64" s="33" t="b">
-        <f>OR(F$61&lt;=VLOOKUP($E64,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
+      <c r="F64" s="31" t="b">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G64" s="33" t="b">
-        <f>OR(G$61&lt;=VLOOKUP($E64,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
+      <c r="G64" s="31" t="b">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="3"/>
-      <c r="L64" s="38">
+      <c r="L64" s="33">
         <v>18</v>
       </c>
-      <c r="M64" s="38">
-        <f>$M$8</f>
+      <c r="M64" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N64" s="38">
-        <f>(1-EXP(-L64/$M$6))*$M$8</f>
+      <c r="N64" s="33">
+        <f>(1-EXP(-L64/$T$7))*$T$9</f>
         <v>83.470111177841346</v>
       </c>
-      <c r="O64" s="44">
-        <f>1-EXP(-L64/$M$5)</f>
+      <c r="O64" s="39">
+        <f>1-EXP(-L64/$T$6)</f>
         <v>1.7838967641699233E-2</v>
       </c>
-      <c r="P64" s="40">
-        <f t="shared" si="3"/>
+      <c r="P64" s="35">
+        <f t="shared" si="12"/>
         <v>56.057055547455775</v>
       </c>
-      <c r="Q64" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q64" s="36">
+        <f t="shared" si="13"/>
         <v>2.8028527773727889</v>
       </c>
       <c r="X64"/>
     </row>
     <row r="65" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B65" s="24">
         <v>0</v>
       </c>
-      <c r="C65" s="26">
+      <c r="C65" s="24">
         <v>0</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="33" t="b">
-        <f>OR(F$61&lt;=VLOOKUP($E65,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
+      <c r="F65" s="31" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="G65" s="33" t="b">
-        <f>OR(G$61&lt;=VLOOKUP($E65,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
+      <c r="G65" s="31" t="b">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="3"/>
-      <c r="L65" s="38">
+      <c r="L65" s="33">
         <v>19</v>
       </c>
-      <c r="M65" s="38">
-        <f>$M$8</f>
+      <c r="M65" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N65" s="38">
-        <f>(1-EXP(-L65/$M$6))*$M$8</f>
+      <c r="N65" s="33">
+        <f>(1-EXP(-L65/$T$7))*$T$9</f>
         <v>85.043138077736486</v>
       </c>
-      <c r="O65" s="44">
-        <f>1-EXP(-L65/$M$5)</f>
+      <c r="O65" s="39">
+        <f>1-EXP(-L65/$T$6)</f>
         <v>1.8820637757194003E-2</v>
       </c>
-      <c r="P65" s="40">
-        <f t="shared" si="3"/>
+      <c r="P65" s="35">
+        <f t="shared" si="12"/>
         <v>53.133162271175422</v>
       </c>
-      <c r="Q65" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q65" s="36">
+        <f t="shared" si="13"/>
         <v>2.656658113558771</v>
       </c>
       <c r="X65"/>
     </row>
     <row r="66" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26">
+      <c r="A66" s="54"/>
+      <c r="B66" s="24">
         <f>$B$72*VLOOKUP($A65,$A$47:$G$53,4,FALSE)</f>
         <v>-2.2971533529536625E-14</v>
       </c>
-      <c r="C66" s="26">
+      <c r="C66" s="24">
         <f>$B$72*VLOOKUP($A65,$A$47:$G$53,5,FALSE)</f>
         <v>-125</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="E66" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="33" t="b">
-        <f>OR(F$61&lt;=VLOOKUP($E66,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
+      <c r="F66" s="31" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="G66" s="33" t="b">
-        <f>OR(G$61&lt;=VLOOKUP($E66,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
+      <c r="G66" s="31" t="b">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="3"/>
-      <c r="L66" s="38">
+      <c r="L66" s="33">
         <v>20</v>
       </c>
-      <c r="M66" s="38">
-        <f>$M$8</f>
+      <c r="M66" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N66" s="38">
-        <f>(1-EXP(-L66/$M$6))*$M$8</f>
+      <c r="N66" s="33">
+        <f>(1-EXP(-L66/$T$7))*$T$9</f>
         <v>86.466471676338728</v>
       </c>
-      <c r="O66" s="44">
-        <f>1-EXP(-L66/$M$5)</f>
+      <c r="O66" s="39">
+        <f>1-EXP(-L66/$T$6)</f>
         <v>1.9801326693244747E-2</v>
       </c>
-      <c r="P66" s="40">
-        <f t="shared" si="3"/>
+      <c r="P66" s="35">
+        <f t="shared" si="12"/>
         <v>50.501666655555532</v>
       </c>
-      <c r="Q66" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q66" s="36">
+        <f t="shared" si="13"/>
         <v>2.5250833327777764</v>
       </c>
       <c r="X66"/>
     </row>
     <row r="67" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="26">
+      <c r="B67" s="24">
         <v>0</v>
       </c>
-      <c r="C67" s="26">
+      <c r="C67" s="24">
         <v>0</v>
       </c>
-      <c r="E67" s="32" t="s">
+      <c r="E67" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="33" t="b">
-        <f>OR(F$61&lt;=VLOOKUP($E67,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
+      <c r="F67" s="31" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="G67" s="33" t="b">
-        <f>OR(G$61&lt;=VLOOKUP($E67,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
+      <c r="G67" s="31" t="b">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="3"/>
-      <c r="L67" s="38">
+      <c r="L67" s="33">
         <v>21</v>
       </c>
-      <c r="M67" s="38">
-        <f>$M$8</f>
+      <c r="M67" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N67" s="38">
-        <f>(1-EXP(-L67/$M$6))*$M$8</f>
+      <c r="N67" s="33">
+        <f>(1-EXP(-L67/$T$7))*$T$9</f>
         <v>87.754357174701809</v>
       </c>
-      <c r="O67" s="44">
-        <f>1-EXP(-L67/$M$5)</f>
+      <c r="O67" s="39">
+        <f>1-EXP(-L67/$T$6)</f>
         <v>2.078103543054044E-2</v>
       </c>
-      <c r="P67" s="40">
-        <f t="shared" si="3"/>
+      <c r="P67" s="35">
+        <f t="shared" si="12"/>
         <v>48.120797606185192</v>
       </c>
-      <c r="Q67" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q67" s="36">
+        <f t="shared" si="13"/>
         <v>2.4060398803092595</v>
       </c>
       <c r="X67"/>
     </row>
     <row r="68" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="26">
+      <c r="A68" s="54"/>
+      <c r="B68" s="24">
         <f>$B$72*VLOOKUP($A67,$A$47:$G$53,4,FALSE)</f>
         <v>108.2531754730548</v>
       </c>
-      <c r="C68" s="26">
+      <c r="C68" s="24">
         <f>$B$72*VLOOKUP($A67,$A$47:$G$53,5,FALSE)</f>
         <v>-62.500000000000057</v>
       </c>
@@ -5447,120 +5120,120 @@
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="3"/>
-      <c r="L68" s="38">
+      <c r="L68" s="33">
         <v>22</v>
       </c>
-      <c r="M68" s="38">
-        <f>$M$8</f>
+      <c r="M68" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N68" s="38">
-        <f>(1-EXP(-L68/$M$6))*$M$8</f>
+      <c r="N68" s="33">
+        <f>(1-EXP(-L68/$T$7))*$T$9</f>
         <v>88.919684163766604</v>
       </c>
-      <c r="O68" s="44">
-        <f>1-EXP(-L68/$M$5)</f>
+      <c r="O68" s="39">
+        <f>1-EXP(-L68/$T$6)</f>
         <v>2.175976494878995E-2</v>
       </c>
-      <c r="P68" s="40">
-        <f t="shared" si="3"/>
+      <c r="P68" s="35">
+        <f t="shared" si="12"/>
         <v>45.95637877309008</v>
       </c>
-      <c r="Q68" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q68" s="36">
+        <f t="shared" si="13"/>
         <v>2.2978189386545038</v>
       </c>
       <c r="X68"/>
     </row>
     <row r="69" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="26">
+      <c r="B69" s="24">
         <v>0</v>
       </c>
-      <c r="C69" s="26">
+      <c r="C69" s="24">
         <v>0</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="33" t="str">
+      <c r="F69" s="31" t="str">
         <f>INDEX($A$6:$A$11,IF(MATCH(TRUE,F62:F67,0)=1,COUNTA($A$6:$A$11),MATCH(TRUE,F62:F67,0)-1))</f>
         <v>FIRE</v>
       </c>
-      <c r="G69" s="33" t="str">
+      <c r="G69" s="31" t="str">
         <f>INDEX($A$6:$A$11,IF(MATCH(TRUE,G62:G67,0)=1,COUNTA($A$6:$A$11),MATCH(TRUE,G62:G67,0)-1))</f>
         <v>FIRE</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="3"/>
-      <c r="L69" s="38">
+      <c r="L69" s="33">
         <v>23</v>
       </c>
-      <c r="M69" s="38">
-        <f>$M$8</f>
+      <c r="M69" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N69" s="38">
-        <f>(1-EXP(-L69/$M$6))*$M$8</f>
+      <c r="N69" s="33">
+        <f>(1-EXP(-L69/$T$7))*$T$9</f>
         <v>89.974115627719613</v>
       </c>
-      <c r="O69" s="44">
-        <f>1-EXP(-L69/$M$5)</f>
+      <c r="O69" s="39">
+        <f>1-EXP(-L69/$T$6)</f>
         <v>2.2737516226722931E-2</v>
       </c>
-      <c r="P69" s="40">
-        <f t="shared" si="3"/>
+      <c r="P69" s="35">
+        <f t="shared" si="12"/>
         <v>43.980177519333473</v>
       </c>
-      <c r="Q69" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q69" s="36">
+        <f t="shared" si="13"/>
         <v>2.1990088759666735</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26">
+      <c r="A70" s="54"/>
+      <c r="B70" s="24">
         <f>$B$72*F57</f>
         <v>-90.93266739736606</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="24">
         <f>$B$72*F58</f>
         <v>22.499999999999993</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="26">
+      <c r="F70" s="24">
         <f>VLOOKUP(F68,$A$47:$I$53,6,FALSE)</f>
         <v>-10.825317547305483</v>
       </c>
-      <c r="G70" s="26">
+      <c r="G70" s="24">
         <f>VLOOKUP(G68,$A$47:$I$53,6,FALSE)</f>
         <v>-10.825317547305483</v>
       </c>
-      <c r="L70" s="38">
+      <c r="L70" s="33">
         <v>24</v>
       </c>
-      <c r="M70" s="38">
-        <f>$M$8</f>
+      <c r="M70" s="33">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N70" s="38">
-        <f>(1-EXP(-L70/$M$6))*$M$8</f>
+      <c r="N70" s="33">
+        <f>(1-EXP(-L70/$T$7))*$T$9</f>
         <v>90.928204671058751</v>
       </c>
-      <c r="O70" s="44">
-        <f>1-EXP(-L70/$M$5)</f>
+      <c r="O70" s="39">
+        <f>1-EXP(-L70/$T$6)</f>
         <v>2.3714290242090708E-2</v>
       </c>
-      <c r="P70" s="40">
-        <f t="shared" si="3"/>
+      <c r="P70" s="35">
+        <f t="shared" si="12"/>
         <v>42.168666647466893</v>
       </c>
-      <c r="Q70" s="41">
-        <f t="shared" si="4"/>
+      <c r="Q70" s="36">
+        <f t="shared" si="13"/>
         <v>2.1084333323733446</v>
       </c>
     </row>
@@ -5568,35 +5241,35 @@
       <c r="E71" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="26">
+      <c r="F71" s="24">
         <f>VLOOKUP(F68,$A$47:$I$53,7,FALSE)</f>
         <v>-6.2500000000000018</v>
       </c>
-      <c r="G71" s="26">
+      <c r="G71" s="24">
         <f>VLOOKUP(G68,$A$47:$I$53,7,FALSE)</f>
         <v>-6.2500000000000018</v>
       </c>
-      <c r="L71" s="39">
+      <c r="L71" s="34">
         <v>25</v>
       </c>
-      <c r="M71" s="39">
-        <f>$M$8</f>
+      <c r="M71" s="34">
+        <f>$T$9</f>
         <v>100</v>
       </c>
-      <c r="N71" s="39">
-        <f>(1-EXP(-L71/$M$6))*$M$8</f>
+      <c r="N71" s="34">
+        <f>(1-EXP(-L71/$T$7))*$T$9</f>
         <v>91.791500137610115</v>
       </c>
-      <c r="O71" s="45">
-        <f>1-EXP(-L71/$M$5)</f>
+      <c r="O71" s="40">
+        <f>1-EXP(-L71/$T$6)</f>
         <v>2.4690087971667385E-2</v>
       </c>
-      <c r="P71" s="42">
+      <c r="P71" s="37">
         <f>1/O71</f>
         <v>40.502083311632177</v>
       </c>
-      <c r="Q71" s="43">
-        <f t="shared" si="4"/>
+      <c r="Q71" s="38">
+        <f t="shared" si="13"/>
         <v>2.0251041655816087</v>
       </c>
     </row>
@@ -5604,17 +5277,17 @@
       <c r="A72" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="24">
+      <c r="B72" s="23">
         <v>5</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F72" s="26">
+      <c r="F72" s="24">
         <f>VLOOKUP(F69,$A$47:$I$53,6,FALSE)</f>
         <v>-19.48557158514987</v>
       </c>
-      <c r="G72" s="26">
+      <c r="G72" s="24">
         <f>VLOOKUP(G69,$A$47:$I$53,6,FALSE)</f>
         <v>-19.48557158514987</v>
       </c>
@@ -5623,11 +5296,11 @@
       <c r="E73" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="26">
+      <c r="F73" s="24">
         <f>VLOOKUP(F69,$A$47:$I$53,7,FALSE)</f>
         <v>11.249999999999998</v>
       </c>
-      <c r="G73" s="26">
+      <c r="G73" s="24">
         <f>VLOOKUP(G69,$A$47:$I$53,7,FALSE)</f>
         <v>11.249999999999998</v>
       </c>
@@ -5636,11 +5309,11 @@
       <c r="E74" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="26">
+      <c r="F74" s="24">
         <f>(F73-F71)/(F72-F70)</f>
         <v>-2.0207259421636898</v>
       </c>
-      <c r="G74" s="26">
+      <c r="G74" s="24">
         <f>(G73-G71)/(G72-G70)</f>
         <v>-2.0207259421636898</v>
       </c>
@@ -5673,18 +5346,14 @@
     </row>
     <row r="77" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="17">
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="18">
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="O44:Q44"/>
     <mergeCell ref="M44:N44"/>
-    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="O5:Q5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
@@ -5692,6 +5361,11 @@
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A60"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F11">

--- a/math.xlsx
+++ b/math.xlsx
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
   <si>
     <t>Min</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>(Experience multiplier)</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
   </si>
 </sst>
 </file>
@@ -1016,16 +1022,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
@@ -1040,10 +1040,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1991,11 +1997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="77491008"/>
-        <c:axId val="77491584"/>
+        <c:axId val="83044608"/>
+        <c:axId val="83045760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77491008"/>
+        <c:axId val="83044608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2007,12 +2013,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77491584"/>
+        <c:crossAx val="83045760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77491584"/>
+        <c:axId val="83045760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2024,7 +2030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77491008"/>
+        <c:crossAx val="83044608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2155,10 +2161,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.396336441245893</c:v>
+                  <c:v>18.734993995195193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.396336441245893</c:v>
+                  <c:v>18.734993995195193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2170,10 +2176,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21.308390039906666</c:v>
+                  <c:v>84.641473586924647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.308390039906666</c:v>
+                  <c:v>84.641473586924647</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2191,8 +2197,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="77494464"/>
-        <c:axId val="77495040"/>
+        <c:axId val="83048640"/>
+        <c:axId val="83049216"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2599,11 +2605,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="77494464"/>
-        <c:axId val="77495040"/>
+        <c:axId val="83048640"/>
+        <c:axId val="83049216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77494464"/>
+        <c:axId val="83048640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2614,14 +2620,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77495040"/>
+        <c:crossAx val="83049216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77495040"/>
+        <c:axId val="83049216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2633,7 +2639,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77494464"/>
+        <c:crossAx val="83048640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2745,10 +2751,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20.890193662366794</c:v>
+                  <c:v>10.45761180827895</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.890193662366794</c:v>
+                  <c:v>10.45761180827895</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2766,8 +2772,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106251392"/>
-        <c:axId val="106251968"/>
+        <c:axId val="105333888"/>
+        <c:axId val="105334464"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2875,82 +2881,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>5000000.030387355</c:v>
+                  <c:v>2500000.0290714656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.025004166668111</c:v>
+                  <c:v>25.025008333332931</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.025008333332931</c:v>
+                  <c:v>12.52501666666226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.69167916666493</c:v>
+                  <c:v>8.3583583333183498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.52501666666226</c:v>
+                  <c:v>6.2750333332977997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.025020833324666</c:v>
+                  <c:v>5.0250416665972493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3583583333183498</c:v>
+                  <c:v>4.1917166665466592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1678863094999929</c:v>
+                  <c:v>3.5964869045713472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.2750333332977997</c:v>
+                  <c:v>3.1500666663822283</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5805930555049201</c:v>
+                  <c:v>2.8028527773727889</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0250416665972493</c:v>
+                  <c:v>2.5250833327777764</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5705003786954617</c:v>
+                  <c:v>2.2978189386545038</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1917166665466592</c:v>
+                  <c:v>2.1084333323733446</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8712080126679425</c:v>
+                  <c:v>1.9481852551897236</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5964869045713472</c:v>
+                  <c:v>1.8108309508565337</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3583958330989567</c:v>
+                  <c:v>1.6917916647917057</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1500666663822283</c:v>
+                  <c:v>1.5876333310578339</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9662473035803916</c:v>
+                  <c:v>1.4957298992314141</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8028527773727889</c:v>
+                  <c:v>1.4140388856489907</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.656658113558771</c:v>
+                  <c:v>1.3409478032071189</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.5250833327777764</c:v>
+                  <c:v>1.2751666622223905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.4060398803092595</c:v>
+                  <c:v>1.2156511853314051</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2978189386545038</c:v>
+                  <c:v>1.1615469637816869</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.1990088759666735</c:v>
+                  <c:v>1.1121481816466945</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.1084333323733446</c:v>
+                  <c:v>1.0668666589870877</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0251041655816087</c:v>
+                  <c:v>1.0252083246532946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2965,11 +2971,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106251392"/>
-        <c:axId val="106251968"/>
+        <c:axId val="105333888"/>
+        <c:axId val="105334464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106251392"/>
+        <c:axId val="105333888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2980,14 +2986,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106251968"/>
+        <c:crossAx val="105334464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106251968"/>
+        <c:axId val="105334464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -3000,7 +3006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106251392"/>
+        <c:crossAx val="105333888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3037,7 +3043,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8BEFA9B-A9EF-470C-99B1-444DB63A8217}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8BEFA9B-A9EF-470C-99B1-444DB63A8217}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3411,8 +3417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y43" sqref="Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,10 +3483,10 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="58"/>
+      <c r="I4" s="51"/>
       <c r="M4" s="17" t="s">
         <v>46</v>
       </c>
@@ -3511,18 +3517,18 @@
         <v>7</v>
       </c>
       <c r="M5" s="12">
-        <f>ROUNDDOWN(IF(L5=$F$68,$J$60,IF(L5=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <f>ROUNDDOWN(IF(L5=$F$68,$J$62,IF(L5=$F$69,$J$63,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="S5" s="58" t="s">
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="S5" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="58"/>
+      <c r="T5" s="51"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -3560,7 +3566,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="12">
-        <f>ROUNDDOWN(IF(L6=$F$68,$J$60,IF(L6=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <f>ROUNDDOWN(IF(L6=$F$68,$J$62,IF(L6=$F$69,$J$63,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
         <v>0</v>
       </c>
       <c r="O6" s="17" t="s">
@@ -3575,7 +3581,7 @@
         <v>57</v>
       </c>
       <c r="T6" s="18">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>61</v>
@@ -3617,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="12">
-        <f>ROUNDDOWN(IF(L7=$F$68,$J$60,IF(L7=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <f>ROUNDDOWN(IF(L7=$F$68,$J$62,IF(L7=$F$69,$J$63,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
         <v>15</v>
       </c>
       <c r="O7" s="17" t="s">
@@ -3625,7 +3631,7 @@
       </c>
       <c r="P7" s="44">
         <f>IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$6))*100</f>
-        <v>0.23934675191678023</v>
+        <v>0.47812063515703107</v>
       </c>
       <c r="Q7" s="45" t="s">
         <v>52</v>
@@ -3676,7 +3682,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="12">
-        <f>ROUNDDOWN(IF(L8=$F$68,$J$60,IF(L8=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <f>ROUNDDOWN(IF(L8=$F$68,$J$62,IF(L8=$F$69,$J$63,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
         <v>5</v>
       </c>
       <c r="O8" s="17" t="s">
@@ -3684,7 +3690,7 @@
       </c>
       <c r="P8" s="46">
         <f>IF(P7=0,100000000,100/P7)</f>
-        <v>417.8038732473359</v>
+        <v>209.15223616557901</v>
       </c>
       <c r="Q8" s="45" t="s">
         <v>53</v>
@@ -3735,7 +3741,7 @@
         <v>4</v>
       </c>
       <c r="M9" s="12">
-        <f>ROUNDDOWN(IF(L9=$F$68,$J$60,IF(L9=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <f>ROUNDDOWN(IF(L9=$F$68,$J$62,IF(L9=$F$69,$J$63,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
         <v>0</v>
       </c>
       <c r="O9" s="17" t="s">
@@ -3743,7 +3749,7 @@
       </c>
       <c r="P9" s="44">
         <f>P8/20</f>
-        <v>20.890193662366794</v>
+        <v>10.457611808278951</v>
       </c>
       <c r="Q9" s="45" t="s">
         <v>45</v>
@@ -3792,7 +3798,7 @@
         <v>3</v>
       </c>
       <c r="M10" s="12">
-        <f>ROUNDDOWN(IF(L10=$F$68,$J$60,IF(L10=$F$69,$J$61,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <f>ROUNDDOWN(IF(L10=$F$68,$J$62,IF(L10=$F$69,$J$63,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3867,33 +3873,33 @@
     <row r="43" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L44" s="2"/>
-      <c r="M44" s="55" t="s">
+      <c r="M44" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="N44" s="57"/>
-      <c r="O44" s="55" t="s">
+      <c r="N44" s="55"/>
+      <c r="O44" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="57"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="55"/>
     </row>
     <row r="45" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58" t="s">
+      <c r="C45" s="51"/>
+      <c r="D45" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58" t="s">
+      <c r="E45" s="51"/>
+      <c r="F45" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58" t="s">
+      <c r="G45" s="51"/>
+      <c r="H45" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="58"/>
+      <c r="I45" s="51"/>
       <c r="L45" s="32" t="s">
         <v>14</v>
       </c>
@@ -3912,10 +3918,10 @@
       <c r="Q45" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="S45" s="50" t="s">
+      <c r="S45" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="T45" s="51"/>
+      <c r="T45" s="57"/>
     </row>
     <row r="46" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
@@ -3942,11 +3948,11 @@
       <c r="I46" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L46" s="59">
+      <c r="L46" s="50">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="M46" s="41">
-        <f>$T$9</f>
+        <f t="shared" ref="M46:M71" si="4">$T$9</f>
         <v>100</v>
       </c>
       <c r="N46" s="41">
@@ -3954,16 +3960,16 @@
         <v>9.9999949998430537E-5</v>
       </c>
       <c r="O46" s="39">
-        <f>1-EXP(-L46/$T$6)</f>
-        <v>9.9999999392252903E-9</v>
+        <f t="shared" ref="O46:O71" si="5">1-EXP(-L46/$T$6)</f>
+        <v>1.9999999767428278E-8</v>
       </c>
       <c r="P46" s="35">
         <f>IF(O46=0,10000000000000,1/O46)</f>
-        <v>100000000.60774711</v>
+        <v>50000000.58142931</v>
       </c>
       <c r="Q46" s="36">
         <f>P46/20</f>
-        <v>5000000.030387355</v>
+        <v>2500000.0290714656</v>
       </c>
       <c r="S46" s="32" t="s">
         <v>14</v>
@@ -3977,66 +3983,66 @@
         <v>7</v>
       </c>
       <c r="B47" s="22">
-        <f t="shared" ref="B47:B53" si="4">$C$2*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="B47:B53" si="6">$C$2*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>0.86602540378443871</v>
       </c>
       <c r="C47" s="22">
-        <f t="shared" ref="C47:C53" si="5">$C$2*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="C47:C53" si="7">$C$2*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>0.49999999999999994</v>
       </c>
       <c r="D47" s="22">
-        <f t="shared" ref="D47:D53" si="6">$C$3*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="D47:D53" si="8">$C$3*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>21.650635094610969</v>
       </c>
       <c r="E47" s="22">
-        <f t="shared" ref="E47:E53" si="7">$C$3*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="E47:E53" si="9">$C$3*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>12.499999999999998</v>
       </c>
       <c r="F47" s="22">
-        <f t="shared" ref="F47:F53" si="8">VLOOKUP($A47,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="F47:F53" si="10">VLOOKUP($A47,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>10.825317547305485</v>
       </c>
       <c r="G47" s="22">
-        <f t="shared" ref="G47:G53" si="9">VLOOKUP($A47,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="G47:G53" si="11">VLOOKUP($A47,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>6.2499999999999991</v>
       </c>
       <c r="H47" s="22">
-        <f t="shared" ref="H47:H53" si="10">VLOOKUP($A47,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="H47:H53" si="12">VLOOKUP($A47,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="I47" s="22">
-        <f t="shared" ref="I47:I53" si="11">VLOOKUP($A47,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="I47:I53" si="13">VLOOKUP($A47,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L47" s="33">
         <v>1</v>
       </c>
       <c r="M47" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N47" s="33">
-        <f>(1-EXP(-L47/$T$7))*$T$9</f>
+        <f t="shared" ref="N46:N71" si="14">(1-EXP(-L47/$T$7))*$T$9</f>
         <v>9.5162581964040491</v>
       </c>
       <c r="O47" s="39">
-        <f>1-EXP(-L47/$T$6)</f>
-        <v>9.9950016662497809E-4</v>
+        <f t="shared" si="5"/>
+        <v>1.998001332666921E-3</v>
       </c>
       <c r="P47" s="35">
-        <f t="shared" ref="P47:P70" si="12">1/O47</f>
-        <v>1000.5000833333622</v>
+        <f t="shared" ref="P47:P70" si="15">1/O47</f>
+        <v>500.50016666665863</v>
       </c>
       <c r="Q47" s="36">
-        <f t="shared" ref="Q47:Q71" si="13">P47/20</f>
-        <v>50.025004166668111</v>
+        <f t="shared" ref="Q47:Q71" si="16">P47/20</f>
+        <v>25.025008333332931</v>
       </c>
       <c r="S47" s="47">
         <v>0</v>
       </c>
       <c r="T47" s="47">
         <f>T48</f>
-        <v>21.308390039906666</v>
+        <v>84.641473586924647</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4044,67 +4050,67 @@
         <v>5</v>
       </c>
       <c r="B48" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C48" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="D48" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.531435568635775E-15</v>
       </c>
       <c r="E48" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="F48" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.1886134118146501E-16</v>
       </c>
       <c r="G48" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="H48" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I48" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L48" s="33">
         <v>2</v>
       </c>
       <c r="M48" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N48" s="33">
-        <f>(1-EXP(-L48/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>18.126924692201818</v>
       </c>
       <c r="O48" s="39">
-        <f>1-EXP(-L48/$T$6)</f>
-        <v>1.998001332666921E-3</v>
+        <f t="shared" si="5"/>
+        <v>3.9920106560085156E-3</v>
       </c>
       <c r="P48" s="35">
-        <f t="shared" si="12"/>
-        <v>500.50016666665863</v>
+        <f t="shared" si="15"/>
+        <v>250.50033333324521</v>
       </c>
       <c r="Q48" s="36">
-        <f t="shared" si="13"/>
-        <v>25.025008333332931</v>
+        <f t="shared" si="16"/>
+        <v>12.52501666666226</v>
       </c>
       <c r="S48" s="35">
-        <f>J57</f>
-        <v>2.396336441245893</v>
+        <f>F59</f>
+        <v>18.734993995195193</v>
       </c>
       <c r="T48" s="35">
         <f>(1-EXP(-S48/$T$7))*$T$9</f>
-        <v>21.308390039906666</v>
+        <v>84.641473586924647</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4112,63 +4118,63 @@
         <v>2</v>
       </c>
       <c r="B49" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.86602540378443871</v>
       </c>
       <c r="C49" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D49" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-21.650635094610969</v>
       </c>
       <c r="E49" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12.499999999999998</v>
       </c>
       <c r="F49" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-19.48557158514987</v>
       </c>
       <c r="G49" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11.249999999999998</v>
       </c>
       <c r="H49" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-12.99038105676658</v>
       </c>
       <c r="I49" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.4999999999999991</v>
       </c>
       <c r="L49" s="33">
         <v>3</v>
       </c>
       <c r="M49" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N49" s="33">
-        <f>(1-EXP(-L49/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>25.918177931828211</v>
       </c>
       <c r="O49" s="39">
-        <f>1-EXP(-L49/$T$6)</f>
-        <v>2.9955044966269995E-3</v>
+        <f t="shared" si="5"/>
+        <v>5.9820359460647232E-3</v>
       </c>
       <c r="P49" s="35">
-        <f t="shared" si="12"/>
-        <v>333.83358333329858</v>
+        <f t="shared" si="15"/>
+        <v>167.167166666367</v>
       </c>
       <c r="Q49" s="36">
-        <f t="shared" si="13"/>
-        <v>16.69167916666493</v>
+        <f t="shared" si="16"/>
+        <v>8.3583583333183498</v>
       </c>
       <c r="S49" s="37">
         <f>S48</f>
-        <v>2.396336441245893</v>
+        <v>18.734993995195193</v>
       </c>
       <c r="T49" s="37">
         <v>0</v>
@@ -4179,59 +4185,59 @@
         <v>6</v>
       </c>
       <c r="B50" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.8660254037844386</v>
       </c>
       <c r="C50" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.50000000000000011</v>
       </c>
       <c r="D50" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-21.650635094610966</v>
       </c>
       <c r="E50" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-12.500000000000004</v>
       </c>
       <c r="F50" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-10.825317547305483</v>
       </c>
       <c r="G50" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-6.2500000000000018</v>
       </c>
       <c r="H50" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-5.196152422706632</v>
       </c>
       <c r="I50" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.0000000000000009</v>
       </c>
       <c r="L50" s="33">
         <v>4</v>
       </c>
       <c r="M50" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N50" s="33">
-        <f>(1-EXP(-L50/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>32.967995396436066</v>
       </c>
       <c r="O50" s="39">
-        <f>1-EXP(-L50/$T$6)</f>
-        <v>3.9920106560085156E-3</v>
+        <f t="shared" si="5"/>
+        <v>7.9680851629393423E-3</v>
       </c>
       <c r="P50" s="35">
-        <f t="shared" si="12"/>
-        <v>250.50033333324521</v>
+        <f t="shared" si="15"/>
+        <v>125.50066666595599</v>
       </c>
       <c r="Q50" s="36">
-        <f t="shared" si="13"/>
-        <v>12.52501666666226</v>
+        <f t="shared" si="16"/>
+        <v>6.2750333332977997</v>
       </c>
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
@@ -4241,42 +4247,42 @@
         <v>4</v>
       </c>
       <c r="B51" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.83772268236293E-16</v>
       </c>
       <c r="C51" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
       <c r="D51" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.594306705907325E-15</v>
       </c>
       <c r="E51" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-25</v>
       </c>
       <c r="F51" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.756584023544395E-15</v>
       </c>
       <c r="G51" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-15</v>
       </c>
       <c r="H51" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I51" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L51" s="33">
         <v>5</v>
       </c>
       <c r="M51" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N51" s="33">
@@ -4284,80 +4290,80 @@
         <v>39.346934028736655</v>
       </c>
       <c r="O51" s="39">
-        <f>1-EXP(-L51/$T$6)</f>
-        <v>4.9875208073176802E-3</v>
+        <f t="shared" si="5"/>
+        <v>9.9501662508318933E-3</v>
       </c>
       <c r="P51" s="35">
-        <f t="shared" si="12"/>
-        <v>200.50041666649332</v>
+        <f t="shared" si="15"/>
+        <v>100.50083333194499</v>
       </c>
       <c r="Q51" s="36">
-        <f t="shared" si="13"/>
-        <v>10.025020833324666</v>
-      </c>
-      <c r="S51" s="52" t="s">
+        <f t="shared" si="16"/>
+        <v>5.0250416665972493</v>
+      </c>
+      <c r="S51" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="T51" s="53"/>
+      <c r="T51" s="59"/>
     </row>
     <row r="52" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.86602540378443837</v>
       </c>
       <c r="C52" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.50000000000000044</v>
       </c>
       <c r="D52" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21.650635094610958</v>
       </c>
       <c r="E52" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-12.500000000000011</v>
       </c>
       <c r="F52" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15.155444566227672</v>
       </c>
       <c r="G52" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-8.7500000000000071</v>
       </c>
       <c r="H52" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I52" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L52" s="33">
         <v>6</v>
       </c>
       <c r="M52" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N52" s="33">
-        <f>(1-EXP(-L52/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>45.118836390597359</v>
       </c>
       <c r="O52" s="39">
-        <f>1-EXP(-L52/$T$6)</f>
-        <v>5.9820359460647232E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.1928287138069482E-2</v>
       </c>
       <c r="P52" s="35">
-        <f t="shared" si="12"/>
-        <v>167.167166666367</v>
+        <f t="shared" si="15"/>
+        <v>83.834333330933191</v>
       </c>
       <c r="Q52" s="36">
-        <f t="shared" si="13"/>
-        <v>8.3583583333183498</v>
+        <f t="shared" si="16"/>
+        <v>4.1917166665466592</v>
       </c>
       <c r="S52" s="48" t="s">
         <v>14</v>
@@ -4371,66 +4377,66 @@
         <v>7</v>
       </c>
       <c r="B53" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C53" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D53" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21.650635094610969</v>
       </c>
       <c r="E53" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>12.499999999999998</v>
       </c>
       <c r="F53" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10.825317547305485</v>
       </c>
       <c r="G53" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.2499999999999991</v>
       </c>
       <c r="H53" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I53" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L53" s="33">
         <v>7</v>
       </c>
       <c r="M53" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N53" s="33">
-        <f>(1-EXP(-L53/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>50.341469620859044</v>
       </c>
       <c r="O53" s="39">
-        <f>1-EXP(-L53/$T$6)</f>
-        <v>6.9755570667648925E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.3902455737138109E-2</v>
       </c>
       <c r="P53" s="35">
-        <f t="shared" si="12"/>
-        <v>143.35772618999985</v>
+        <f t="shared" si="15"/>
+        <v>71.929738091426941</v>
       </c>
       <c r="Q53" s="36">
-        <f t="shared" si="13"/>
-        <v>7.1678863094999929</v>
+        <f t="shared" si="16"/>
+        <v>3.5964869045713472</v>
       </c>
       <c r="S53" s="47">
         <v>0</v>
       </c>
       <c r="T53" s="47">
         <f>T54</f>
-        <v>20.890193662366794</v>
+        <v>10.45761180827895</v>
       </c>
     </row>
     <row r="54" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4449,24 +4455,24 @@
         <v>8</v>
       </c>
       <c r="M54" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N54" s="33">
-        <f>(1-EXP(-L54/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>55.067103588277845</v>
       </c>
       <c r="O54" s="39">
-        <f>1-EXP(-L54/$T$6)</f>
-        <v>7.9680851629393423E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.5872679944714863E-2</v>
       </c>
       <c r="P54" s="35">
-        <f t="shared" si="12"/>
-        <v>125.50066666595599</v>
+        <f t="shared" si="15"/>
+        <v>63.001333327644566</v>
       </c>
       <c r="Q54" s="36">
-        <f t="shared" si="13"/>
-        <v>6.2750333332977997</v>
+        <f t="shared" si="16"/>
+        <v>3.1500666663822283</v>
       </c>
       <c r="S54" s="35">
         <f>J57</f>
@@ -4474,7 +4480,7 @@
       </c>
       <c r="T54" s="35">
         <f>1/(20*(1-EXP(-S54/$T$6)))</f>
-        <v>20.890193662366794</v>
+        <v>10.45761180827895</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4482,24 +4488,24 @@
         <v>9</v>
       </c>
       <c r="M55" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N55" s="33">
-        <f>(1-EXP(-L55/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>59.343034025940092</v>
       </c>
       <c r="O55" s="39">
-        <f>1-EXP(-L55/$T$6)</f>
-        <v>8.9596212271163544E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.7838967641699233E-2</v>
       </c>
       <c r="P55" s="35">
-        <f t="shared" si="12"/>
-        <v>111.6118611100984</v>
+        <f t="shared" si="15"/>
+        <v>56.057055547455775</v>
       </c>
       <c r="Q55" s="36">
-        <f t="shared" si="13"/>
-        <v>5.5805930555049201</v>
+        <f t="shared" si="16"/>
+        <v>2.8028527773727889</v>
       </c>
       <c r="S55" s="37">
         <f>S54</f>
@@ -4533,28 +4539,28 @@
         <v>10</v>
       </c>
       <c r="M56" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N56" s="33">
-        <f>(1-EXP(-L56/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>63.212055882855765</v>
       </c>
       <c r="O56" s="39">
-        <f>1-EXP(-L56/$T$6)</f>
-        <v>9.9501662508318933E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.9801326693244747E-2</v>
       </c>
       <c r="P56" s="35">
-        <f t="shared" si="12"/>
-        <v>100.50083333194499</v>
+        <f t="shared" si="15"/>
+        <v>50.501666655555532</v>
       </c>
       <c r="Q56" s="36">
-        <f t="shared" si="13"/>
-        <v>5.0250416665972493</v>
+        <f t="shared" si="16"/>
+        <v>2.5250833327777764</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="52" t="s">
         <v>7</v>
       </c>
       <c r="B57" s="24">
@@ -4585,29 +4591,29 @@
         <v>11</v>
       </c>
       <c r="M57" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N57" s="33">
-        <f>(1-EXP(-L57/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>66.712891630192047</v>
       </c>
       <c r="O57" s="39">
-        <f>1-EXP(-L57/$T$6)</f>
-        <v>1.0939721224631271E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.175976494878995E-2</v>
       </c>
       <c r="P57" s="35">
-        <f t="shared" si="12"/>
-        <v>91.410007573909226</v>
+        <f t="shared" si="15"/>
+        <v>45.95637877309008</v>
       </c>
       <c r="Q57" s="36">
-        <f t="shared" si="13"/>
-        <v>4.5705003786954617</v>
+        <f t="shared" si="16"/>
+        <v>2.2978189386545038</v>
       </c>
       <c r="R57" s="2"/>
     </row>
     <row r="58" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="54"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="24">
         <f>$B$72*VLOOKUP($A57,$A$47:$G$53,4,FALSE)</f>
         <v>108.25317547305485</v>
@@ -4628,38 +4634,38 @@
         <v>3.9244186046511613</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="J58" s="12">
-        <f>VLOOKUP(F68,$A$6:$C$11,2,FALSE)-VLOOKUP(F69,$A$6:$C$11,2,FALSE) + IF(VLOOKUP(F68,$A$6:$C$11,2,FALSE)-VLOOKUP(F69,$A$6:$C$11,2,FALSE)&gt;180,-360,IF(VLOOKUP(F68,$A$6:$C$11,2,FALSE)-VLOOKUP(F69,$A$6:$C$11,2,FALSE)&lt;=-180,360,0))</f>
-        <v>60</v>
+        <f>VLOOKUP(F68,$A$6:$C$11,2,FALSE)</f>
+        <v>210</v>
       </c>
       <c r="L58" s="33">
         <v>12</v>
       </c>
       <c r="M58" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N58" s="33">
-        <f>(1-EXP(-L58/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>69.880578808779774</v>
       </c>
       <c r="O58" s="39">
-        <f>1-EXP(-L58/$T$6)</f>
-        <v>1.1928287138069482E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.3714290242090708E-2</v>
       </c>
       <c r="P58" s="35">
-        <f t="shared" si="12"/>
-        <v>83.834333330933191</v>
+        <f t="shared" si="15"/>
+        <v>42.168666647466893</v>
       </c>
       <c r="Q58" s="36">
-        <f t="shared" si="13"/>
-        <v>4.1917166665466592</v>
+        <f t="shared" si="16"/>
+        <v>2.1084333323733446</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="24">
@@ -4680,38 +4686,38 @@
         <v>16.3386575539493</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" s="24">
-        <f>VLOOKUP(F68,$A$6:$C$11,2,FALSE)-F61 + IF(VLOOKUP(F68,$A$6:$C$11,2,FALSE)-F61&gt;180,-360,IF(VLOOKUP(F68,$A$6:$C$11,2,FALSE)-F61&lt;=-180,360,0))</f>
-        <v>43.897886248013947</v>
+        <v>67</v>
+      </c>
+      <c r="J59" s="12">
+        <f>VLOOKUP(F69,$A$6:$C$11,2,FALSE)</f>
+        <v>150</v>
       </c>
       <c r="L59" s="33">
         <v>13</v>
       </c>
       <c r="M59" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N59" s="33">
-        <f>(1-EXP(-L59/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>72.746820696598746</v>
       </c>
       <c r="O59" s="39">
-        <f>1-EXP(-L59/$T$6)</f>
-        <v>1.2915864979712421E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.5664910391250628E-2</v>
       </c>
       <c r="P59" s="35">
-        <f t="shared" si="12"/>
-        <v>77.424160253358849</v>
+        <f t="shared" si="15"/>
+        <v>38.963705103794474</v>
       </c>
       <c r="Q59" s="36">
-        <f t="shared" si="13"/>
-        <v>3.8712080126679425</v>
+        <f t="shared" si="16"/>
+        <v>1.9481852551897236</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="54"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="24">
         <f>$B$72*VLOOKUP($A59,$A$47:$G$53,4,FALSE)</f>
         <v>7.6571778431788751E-15</v>
@@ -4732,38 +4738,38 @@
         <v>2.8990287794943082</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J60" s="12">
-        <f>1-J59/J58</f>
-        <v>0.26836856253310093</v>
+        <f>J58-J59 + IF(J58-J59&gt;180,-360,IF(J58-J59&lt;=-180,360,0))</f>
+        <v>60</v>
       </c>
       <c r="L60" s="33">
         <v>14</v>
       </c>
       <c r="M60" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N60" s="33">
-        <f>(1-EXP(-L60/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>75.340303605839352</v>
       </c>
       <c r="O60" s="39">
-        <f>1-EXP(-L60/$T$6)</f>
-        <v>1.3902455737138109E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.7611633198753149E-2</v>
       </c>
       <c r="P60" s="35">
-        <f t="shared" si="12"/>
-        <v>71.929738091426941</v>
+        <f t="shared" si="15"/>
+        <v>36.216619017130675</v>
       </c>
       <c r="Q60" s="36">
-        <f t="shared" si="13"/>
-        <v>3.5964869045713472</v>
+        <f t="shared" si="16"/>
+        <v>1.8108309508565337</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="54" t="s">
+      <c r="A61" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="24">
@@ -4784,38 +4790,38 @@
         <v>166.10211375198605</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J61" s="12">
-        <f>1-J60</f>
-        <v>0.73163143746689907</v>
+        <v>24</v>
+      </c>
+      <c r="J61" s="24">
+        <f>J58-F61 + IF(J58-F61&gt;180,-360,IF(J58-F61&lt;=-180,360,0))</f>
+        <v>43.897886248013947</v>
       </c>
       <c r="L61" s="33">
         <v>15</v>
       </c>
       <c r="M61" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N61" s="33">
-        <f>(1-EXP(-L61/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>77.686983985157028</v>
       </c>
       <c r="O61" s="39">
-        <f>1-EXP(-L61/$T$6)</f>
-        <v>1.4888060396937353E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.9554466451491845E-2</v>
       </c>
       <c r="P61" s="35">
-        <f t="shared" si="12"/>
-        <v>67.167916661979135</v>
+        <f t="shared" si="15"/>
+        <v>33.835833295834114</v>
       </c>
       <c r="Q61" s="36">
-        <f t="shared" si="13"/>
-        <v>3.3583958330989567</v>
+        <f t="shared" si="16"/>
+        <v>1.6917916647917057</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="54"/>
+      <c r="A62" s="52"/>
       <c r="B62" s="24">
         <f>$B$72*VLOOKUP($A61,$A$47:$G$53,4,FALSE)</f>
         <v>-108.25317547305485</v>
@@ -4828,39 +4834,46 @@
         <v>7</v>
       </c>
       <c r="F62" s="31" t="b">
-        <f t="shared" ref="F62:F67" si="14">OR(F$61&lt;=VLOOKUP($E62,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
+        <f t="shared" ref="F62:F67" si="17">OR(F$61&lt;=VLOOKUP($E62,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
         <v>0</v>
       </c>
       <c r="G62" s="31" t="b">
-        <f t="shared" ref="G62:G67" si="15">OR(G$61&lt;=VLOOKUP($E62,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
+        <f t="shared" ref="G62:G67" si="18">OR(G$61&lt;=VLOOKUP($E62,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
         <v>0</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J62" s="12">
+        <f>1-J61/J60</f>
+        <v>0.26836856253310093</v>
       </c>
       <c r="L62" s="33">
         <v>16</v>
       </c>
       <c r="M62" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N62" s="33">
-        <f>(1-EXP(-L62/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>79.810348200534463</v>
       </c>
       <c r="O62" s="39">
-        <f>1-EXP(-L62/$T$6)</f>
-        <v>1.5872679944714863E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.1493417920802402E-2</v>
       </c>
       <c r="P62" s="35">
-        <f t="shared" si="12"/>
-        <v>63.001333327644566</v>
+        <f t="shared" si="15"/>
+        <v>31.752666621156678</v>
       </c>
       <c r="Q62" s="36">
-        <f t="shared" si="13"/>
-        <v>3.1500666663822283</v>
+        <f t="shared" si="16"/>
+        <v>1.5876333310578339</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="52" t="s">
         <v>6</v>
       </c>
       <c r="B63" s="24">
@@ -4873,40 +4886,47 @@
         <v>5</v>
       </c>
       <c r="F63" s="31" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G63" s="31" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J63" s="12">
+        <f>1-J62</f>
+        <v>0.73163143746689907</v>
       </c>
       <c r="L63" s="33">
         <v>17</v>
       </c>
       <c r="M63" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N63" s="33">
-        <f>(1-EXP(-L63/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>81.731647594726525</v>
       </c>
       <c r="O63" s="39">
-        <f>1-EXP(-L63/$T$6)</f>
-        <v>1.6856315365090357E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.3428495362493371E-2</v>
       </c>
       <c r="P63" s="35">
-        <f t="shared" si="12"/>
-        <v>59.324946071607833</v>
+        <f t="shared" si="15"/>
+        <v>29.91459798462828</v>
       </c>
       <c r="Q63" s="36">
-        <f t="shared" si="13"/>
-        <v>2.9662473035803916</v>
+        <f t="shared" si="16"/>
+        <v>1.4957298992314141</v>
       </c>
       <c r="X63"/>
     </row>
     <row r="64" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="54"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="24">
         <f>$B$72*VLOOKUP($A63,$A$47:$G$53,4,FALSE)</f>
         <v>-108.25317547305482</v>
@@ -4919,11 +4939,11 @@
         <v>2</v>
       </c>
       <c r="F64" s="31" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G64" s="31" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
@@ -4932,29 +4952,29 @@
         <v>18</v>
       </c>
       <c r="M64" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N64" s="33">
-        <f>(1-EXP(-L64/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>83.470111177841346</v>
       </c>
       <c r="O64" s="39">
-        <f>1-EXP(-L64/$T$6)</f>
-        <v>1.7838967641699233E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.5359706516876921E-2</v>
       </c>
       <c r="P64" s="35">
-        <f t="shared" si="12"/>
-        <v>56.057055547455775</v>
+        <f t="shared" si="15"/>
+        <v>28.280777712979816</v>
       </c>
       <c r="Q64" s="36">
-        <f t="shared" si="13"/>
-        <v>2.8028527773727889</v>
+        <f t="shared" si="16"/>
+        <v>1.4140388856489907</v>
       </c>
       <c r="X64"/>
     </row>
     <row r="65" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B65" s="24">
@@ -4967,11 +4987,11 @@
         <v>6</v>
       </c>
       <c r="F65" s="31" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G65" s="31" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I65" s="2"/>
@@ -4980,29 +5000,29 @@
         <v>19</v>
       </c>
       <c r="M65" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N65" s="33">
-        <f>(1-EXP(-L65/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>85.043138077736486</v>
       </c>
       <c r="O65" s="39">
-        <f>1-EXP(-L65/$T$6)</f>
-        <v>1.8820637757194003E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.728705910880048E-2</v>
       </c>
       <c r="P65" s="35">
-        <f t="shared" si="12"/>
-        <v>53.133162271175422</v>
+        <f t="shared" si="15"/>
+        <v>26.81895606414238</v>
       </c>
       <c r="Q65" s="36">
-        <f t="shared" si="13"/>
-        <v>2.656658113558771</v>
+        <f t="shared" si="16"/>
+        <v>1.3409478032071189</v>
       </c>
       <c r="X65"/>
     </row>
     <row r="66" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="24">
         <f>$B$72*VLOOKUP($A65,$A$47:$G$53,4,FALSE)</f>
         <v>-2.2971533529536625E-14</v>
@@ -5015,11 +5035,11 @@
         <v>4</v>
       </c>
       <c r="F66" s="31" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G66" s="31" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I66" s="2"/>
@@ -5028,29 +5048,29 @@
         <v>20</v>
       </c>
       <c r="M66" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N66" s="33">
-        <f>(1-EXP(-L66/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>86.466471676338728</v>
       </c>
       <c r="O66" s="39">
-        <f>1-EXP(-L66/$T$6)</f>
-        <v>1.9801326693244747E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.9210560847676823E-2</v>
       </c>
       <c r="P66" s="35">
-        <f t="shared" si="12"/>
-        <v>50.501666655555532</v>
+        <f t="shared" si="15"/>
+        <v>25.503333244447809</v>
       </c>
       <c r="Q66" s="36">
-        <f t="shared" si="13"/>
-        <v>2.5250833327777764</v>
+        <f t="shared" si="16"/>
+        <v>1.2751666622223905</v>
       </c>
       <c r="X66"/>
     </row>
     <row r="67" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="24">
@@ -5063,11 +5083,11 @@
         <v>3</v>
       </c>
       <c r="F67" s="31" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G67" s="31" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I67" s="2"/>
@@ -5076,29 +5096,29 @@
         <v>21</v>
       </c>
       <c r="M67" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N67" s="33">
-        <f>(1-EXP(-L67/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>87.754357174701809</v>
       </c>
       <c r="O67" s="39">
-        <f>1-EXP(-L67/$T$6)</f>
-        <v>2.078103543054044E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.1130219427515491E-2</v>
       </c>
       <c r="P67" s="35">
-        <f t="shared" si="12"/>
-        <v>48.120797606185192</v>
+        <f t="shared" si="15"/>
+        <v>24.313023706628105</v>
       </c>
       <c r="Q67" s="36">
-        <f t="shared" si="13"/>
-        <v>2.4060398803092595</v>
+        <f t="shared" si="16"/>
+        <v>1.2156511853314051</v>
       </c>
       <c r="X67"/>
     </row>
     <row r="68" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="54"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="24">
         <f>$B$72*VLOOKUP($A67,$A$47:$G$53,4,FALSE)</f>
         <v>108.2531754730548</v>
@@ -5124,29 +5144,29 @@
         <v>22</v>
       </c>
       <c r="M68" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N68" s="33">
-        <f>(1-EXP(-L68/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>88.919684163766604</v>
       </c>
       <c r="O68" s="39">
-        <f>1-EXP(-L68/$T$6)</f>
-        <v>2.175976494878995E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.3046042526953321E-2</v>
       </c>
       <c r="P68" s="35">
-        <f t="shared" si="12"/>
-        <v>45.95637877309008</v>
+        <f t="shared" si="15"/>
+        <v>23.230939275633737</v>
       </c>
       <c r="Q68" s="36">
-        <f t="shared" si="13"/>
-        <v>2.2978189386545038</v>
+        <f t="shared" si="16"/>
+        <v>1.1615469637816869</v>
       </c>
       <c r="X68"/>
     </row>
     <row r="69" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="52" t="s">
         <v>27</v>
       </c>
       <c r="B69" s="24">
@@ -5172,28 +5192,28 @@
         <v>23</v>
       </c>
       <c r="M69" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N69" s="33">
-        <f>(1-EXP(-L69/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>89.974115627719613</v>
       </c>
       <c r="O69" s="39">
-        <f>1-EXP(-L69/$T$6)</f>
-        <v>2.2737516226722931E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.4958037809285312E-2</v>
       </c>
       <c r="P69" s="35">
-        <f t="shared" si="12"/>
-        <v>43.980177519333473</v>
+        <f t="shared" si="15"/>
+        <v>22.24296363293389</v>
       </c>
       <c r="Q69" s="36">
-        <f t="shared" si="13"/>
-        <v>2.1990088759666735</v>
+        <f t="shared" si="16"/>
+        <v>1.1121481816466945</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="54"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="24">
         <f>$B$72*F57</f>
         <v>-90.93266739736606</v>
@@ -5217,24 +5237,24 @@
         <v>24</v>
       </c>
       <c r="M70" s="33">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N70" s="33">
-        <f>(1-EXP(-L70/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>90.928204671058751</v>
       </c>
       <c r="O70" s="39">
-        <f>1-EXP(-L70/$T$6)</f>
-        <v>2.3714290242090708E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.6866212922495265E-2</v>
       </c>
       <c r="P70" s="35">
-        <f t="shared" si="12"/>
-        <v>42.168666647466893</v>
+        <f t="shared" si="15"/>
+        <v>21.337333179741755</v>
       </c>
       <c r="Q70" s="36">
-        <f t="shared" si="13"/>
-        <v>2.1084333323733446</v>
+        <f t="shared" si="16"/>
+        <v>1.0668666589870877</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5253,24 +5273,24 @@
         <v>25</v>
       </c>
       <c r="M71" s="34">
-        <f>$T$9</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="N71" s="34">
-        <f>(1-EXP(-L71/$T$7))*$T$9</f>
+        <f t="shared" si="14"/>
         <v>91.791500137610115</v>
       </c>
       <c r="O71" s="40">
-        <f>1-EXP(-L71/$T$6)</f>
-        <v>2.4690087971667385E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.8770575499285984E-2</v>
       </c>
       <c r="P71" s="37">
         <f>1/O71</f>
-        <v>40.502083311632177</v>
+        <v>20.504166493065892</v>
       </c>
       <c r="Q71" s="38">
-        <f t="shared" si="13"/>
-        <v>2.0251041655816087</v>
+        <f t="shared" si="16"/>
+        <v>1.0252083246532946</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5348,17 +5368,17 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="18">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="O44:Q44"/>
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="S45:T45"/>

--- a/math.xlsx
+++ b/math.xlsx
@@ -1997,11 +1997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83044608"/>
-        <c:axId val="83045760"/>
+        <c:axId val="64054976"/>
+        <c:axId val="83042304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83044608"/>
+        <c:axId val="64054976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2013,12 +2013,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83045760"/>
+        <c:crossAx val="83042304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83045760"/>
+        <c:axId val="83042304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2030,7 +2030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83044608"/>
+        <c:crossAx val="64054976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2197,8 +2197,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83048640"/>
-        <c:axId val="83049216"/>
+        <c:axId val="83046912"/>
+        <c:axId val="83047488"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2605,11 +2605,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83048640"/>
-        <c:axId val="83049216"/>
+        <c:axId val="83046912"/>
+        <c:axId val="83047488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83048640"/>
+        <c:axId val="83046912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2620,14 +2620,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83049216"/>
+        <c:crossAx val="83047488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83049216"/>
+        <c:axId val="83047488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2639,7 +2639,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83048640"/>
+        <c:crossAx val="83046912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2772,8 +2772,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105333888"/>
-        <c:axId val="105334464"/>
+        <c:axId val="83049792"/>
+        <c:axId val="105332736"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -2971,11 +2971,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105333888"/>
-        <c:axId val="105334464"/>
+        <c:axId val="83049792"/>
+        <c:axId val="105332736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105333888"/>
+        <c:axId val="83049792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -2986,14 +2986,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105334464"/>
+        <c:crossAx val="105332736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105334464"/>
+        <c:axId val="105332736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -3006,7 +3006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105333888"/>
+        <c:crossAx val="83049792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3043,7 +3043,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8BEFA9B-A9EF-470C-99B1-444DB63A8217}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8BEFA9B-A9EF-470C-99B1-444DB63A8217}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3417,8 +3417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y43" sqref="Y43"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3517,7 +3517,7 @@
         <v>7</v>
       </c>
       <c r="M5" s="12">
-        <f>ROUNDDOWN(IF(L5=$F$68,$J$62,IF(L5=$F$69,$J$63,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <f t="shared" ref="M5:M10" si="0">ROUNDDOWN(IF(L5=$F$68,$J$62,IF(L5=$F$69,$J$63,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
         <v>0</v>
       </c>
       <c r="O5" s="51" t="s">
@@ -3549,7 +3549,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="21">
-        <f t="shared" ref="G6:G11" si="0">F6*$C$3/$D$3</f>
+        <f t="shared" ref="G6:G11" si="1">F6*$C$3/$D$3</f>
         <v>12.5</v>
       </c>
       <c r="H6" s="20">
@@ -3566,7 +3566,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="12">
-        <f>ROUNDDOWN(IF(L6=$F$68,$J$62,IF(L6=$F$69,$J$63,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O6" s="17" t="s">
@@ -3596,7 +3596,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="16">
-        <f t="shared" ref="C7:C11" si="1">B7*PI()/180</f>
+        <f t="shared" ref="C7:C11" si="2">B7*PI()/180</f>
         <v>1.5707963267948966</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -3606,7 +3606,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H7" s="20">
@@ -3616,14 +3616,14 @@
         <v>4</v>
       </c>
       <c r="J7" s="21">
-        <f t="shared" ref="J7:J11" si="2">PRODUCT(H7:I7)</f>
+        <f t="shared" ref="J7:J11" si="3">PRODUCT(H7:I7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M7" s="12">
-        <f>ROUNDDOWN(IF(L7=$F$68,$J$62,IF(L7=$F$69,$J$63,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="O7" s="17" t="s">
@@ -3651,11 +3651,11 @@
         <v>2</v>
       </c>
       <c r="B8" s="15">
-        <f t="shared" ref="B8:B11" si="3">B7+60</f>
+        <f t="shared" ref="B8:B11" si="4">B7+60</f>
         <v>150</v>
       </c>
       <c r="C8" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6179938779914944</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -3665,7 +3665,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
       <c r="H8" s="20">
@@ -3675,14 +3675,14 @@
         <v>5</v>
       </c>
       <c r="J8" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="M8" s="12">
-        <f>ROUNDDOWN(IF(L8=$F$68,$J$62,IF(L8=$F$69,$J$63,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O8" s="17" t="s">
@@ -3699,7 +3699,7 @@
         <v>47</v>
       </c>
       <c r="T8" s="18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>65</v>
@@ -3710,11 +3710,11 @@
         <v>6</v>
       </c>
       <c r="B9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="C9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6651914291880923</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -3724,7 +3724,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="H9" s="20">
@@ -3734,14 +3734,14 @@
         <v>3</v>
       </c>
       <c r="J9" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="12">
-        <f>ROUNDDOWN(IF(L9=$F$68,$J$62,IF(L9=$F$69,$J$63,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O9" s="17" t="s">
@@ -3758,7 +3758,7 @@
         <v>63</v>
       </c>
       <c r="T9" s="49">
-        <f>100*T8</f>
+        <f>10*T8</f>
         <v>100</v>
       </c>
     </row>
@@ -3767,11 +3767,11 @@
         <v>4</v>
       </c>
       <c r="B10" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="C10" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7123889803846897</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -3781,7 +3781,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H10" s="20">
@@ -3791,14 +3791,14 @@
         <v>2</v>
       </c>
       <c r="J10" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="12">
-        <f>ROUNDDOWN(IF(L10=$F$68,$J$62,IF(L10=$F$69,$J$63,0))*IF($F$59&lt;$G$59,0,1-EXP(-($F$59-$G$59)/$T$7))*$T$9,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3807,11 +3807,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>330</v>
       </c>
       <c r="C11" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7595865315812871</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -3821,7 +3821,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
       <c r="H11" s="20">
@@ -3831,7 +3831,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="M46" s="41">
-        <f t="shared" ref="M46:M71" si="4">$T$9</f>
+        <f t="shared" ref="M46:M71" si="5">$T$9</f>
         <v>100</v>
       </c>
       <c r="N46" s="41">
@@ -3960,7 +3960,7 @@
         <v>9.9999949998430537E-5</v>
       </c>
       <c r="O46" s="39">
-        <f t="shared" ref="O46:O71" si="5">1-EXP(-L46/$T$6)</f>
+        <f t="shared" ref="O46:O71" si="6">1-EXP(-L46/$T$6)</f>
         <v>1.9999999767428278E-8</v>
       </c>
       <c r="P46" s="35">
@@ -3983,58 +3983,58 @@
         <v>7</v>
       </c>
       <c r="B47" s="22">
-        <f t="shared" ref="B47:B53" si="6">$C$2*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="B47:B53" si="7">$C$2*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>0.86602540378443871</v>
       </c>
       <c r="C47" s="22">
-        <f t="shared" ref="C47:C53" si="7">$C$2*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="C47:C53" si="8">$C$2*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>0.49999999999999994</v>
       </c>
       <c r="D47" s="22">
-        <f t="shared" ref="D47:D53" si="8">$C$3*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="D47:D53" si="9">$C$3*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>21.650635094610969</v>
       </c>
       <c r="E47" s="22">
-        <f t="shared" ref="E47:E53" si="9">$C$3*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="E47:E53" si="10">$C$3*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>12.499999999999998</v>
       </c>
       <c r="F47" s="22">
-        <f t="shared" ref="F47:F53" si="10">VLOOKUP($A47,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="F47:F53" si="11">VLOOKUP($A47,$E$6:$J$11,3,FALSE)*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>10.825317547305485</v>
       </c>
       <c r="G47" s="22">
-        <f t="shared" ref="G47:G53" si="11">VLOOKUP($A47,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="G47:G53" si="12">VLOOKUP($A47,$E$6:$J$11,3,FALSE)*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>6.2499999999999991</v>
       </c>
       <c r="H47" s="22">
-        <f t="shared" ref="H47:H53" si="12">VLOOKUP($A47,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="H47:H53" si="13">VLOOKUP($A47,$E$6:$J$11,6,FALSE)*COS(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="I47" s="22">
-        <f t="shared" ref="I47:I53" si="13">VLOOKUP($A47,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
+        <f t="shared" ref="I47:I53" si="14">VLOOKUP($A47,$E$6:$J$11,6,FALSE)*SIN(VLOOKUP($A47,$A$6:$C$11,3,FALSE))</f>
         <v>0</v>
       </c>
       <c r="L47" s="33">
         <v>1</v>
       </c>
       <c r="M47" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N47" s="33">
-        <f t="shared" ref="N46:N71" si="14">(1-EXP(-L47/$T$7))*$T$9</f>
+        <f t="shared" ref="N47:N71" si="15">(1-EXP(-L47/$T$7))*$T$9</f>
         <v>9.5162581964040491</v>
       </c>
       <c r="O47" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.998001332666921E-3</v>
       </c>
       <c r="P47" s="35">
-        <f t="shared" ref="P47:P70" si="15">1/O47</f>
+        <f t="shared" ref="P47:P70" si="16">1/O47</f>
         <v>500.50016666665863</v>
       </c>
       <c r="Q47" s="36">
-        <f t="shared" ref="Q47:Q71" si="16">P47/20</f>
+        <f t="shared" ref="Q47:Q71" si="17">P47/20</f>
         <v>25.025008333332931</v>
       </c>
       <c r="S47" s="47">
@@ -4050,58 +4050,58 @@
         <v>5</v>
       </c>
       <c r="B48" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="C48" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D48" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.531435568635775E-15</v>
       </c>
       <c r="E48" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="F48" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.1886134118146501E-16</v>
       </c>
       <c r="G48" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="H48" s="22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="22">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="I48" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="L48" s="33">
         <v>2</v>
       </c>
       <c r="M48" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N48" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>18.126924692201818</v>
       </c>
       <c r="O48" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9920106560085156E-3</v>
       </c>
       <c r="P48" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>250.50033333324521</v>
       </c>
       <c r="Q48" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12.52501666666226</v>
       </c>
       <c r="S48" s="35">
@@ -4118,58 +4118,58 @@
         <v>2</v>
       </c>
       <c r="B49" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.86602540378443871</v>
       </c>
       <c r="C49" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D49" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-21.650635094610969</v>
       </c>
       <c r="E49" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.499999999999998</v>
       </c>
       <c r="F49" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-19.48557158514987</v>
       </c>
       <c r="G49" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.249999999999998</v>
       </c>
       <c r="H49" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-12.99038105676658</v>
       </c>
       <c r="I49" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.4999999999999991</v>
       </c>
       <c r="L49" s="33">
         <v>3</v>
       </c>
       <c r="M49" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N49" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.918177931828211</v>
       </c>
       <c r="O49" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.9820359460647232E-3</v>
       </c>
       <c r="P49" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>167.167166666367</v>
       </c>
       <c r="Q49" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.3583583333183498</v>
       </c>
       <c r="S49" s="37">
@@ -4185,58 +4185,58 @@
         <v>6</v>
       </c>
       <c r="B50" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.8660254037844386</v>
       </c>
       <c r="C50" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.50000000000000011</v>
       </c>
       <c r="D50" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-21.650635094610966</v>
       </c>
       <c r="E50" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-12.500000000000004</v>
       </c>
       <c r="F50" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-10.825317547305483</v>
       </c>
       <c r="G50" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-6.2500000000000018</v>
       </c>
       <c r="H50" s="22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-5.196152422706632</v>
       </c>
       <c r="I50" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-3.0000000000000009</v>
       </c>
       <c r="L50" s="33">
         <v>4</v>
       </c>
       <c r="M50" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N50" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>32.967995396436066</v>
       </c>
       <c r="O50" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.9680851629393423E-3</v>
       </c>
       <c r="P50" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>125.50066666595599</v>
       </c>
       <c r="Q50" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.2750333332977997</v>
       </c>
       <c r="S50" s="4"/>
@@ -4247,42 +4247,42 @@
         <v>4</v>
       </c>
       <c r="B51" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.83772268236293E-16</v>
       </c>
       <c r="C51" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="D51" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4.594306705907325E-15</v>
       </c>
       <c r="E51" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-25</v>
       </c>
       <c r="F51" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2.756584023544395E-15</v>
       </c>
       <c r="G51" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-15</v>
       </c>
       <c r="H51" s="22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="22">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="I51" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="L51" s="33">
         <v>5</v>
       </c>
       <c r="M51" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N51" s="33">
@@ -4290,15 +4290,15 @@
         <v>39.346934028736655</v>
       </c>
       <c r="O51" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9501662508318933E-3</v>
       </c>
       <c r="P51" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>100.50083333194499</v>
       </c>
       <c r="Q51" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.0250416665972493</v>
       </c>
       <c r="S51" s="58" t="s">
@@ -4311,58 +4311,58 @@
         <v>3</v>
       </c>
       <c r="B52" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.86602540378443837</v>
       </c>
       <c r="C52" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.50000000000000044</v>
       </c>
       <c r="D52" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21.650635094610958</v>
       </c>
       <c r="E52" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-12.500000000000011</v>
       </c>
       <c r="F52" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15.155444566227672</v>
       </c>
       <c r="G52" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-8.7500000000000071</v>
       </c>
       <c r="H52" s="22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="22">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="I52" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="L52" s="33">
         <v>6</v>
       </c>
       <c r="M52" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N52" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>45.118836390597359</v>
       </c>
       <c r="O52" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1928287138069482E-2</v>
       </c>
       <c r="P52" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>83.834333330933191</v>
       </c>
       <c r="Q52" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4.1917166665466592</v>
       </c>
       <c r="S52" s="48" t="s">
@@ -4377,58 +4377,58 @@
         <v>7</v>
       </c>
       <c r="B53" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="C53" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D53" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21.650635094610969</v>
       </c>
       <c r="E53" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.499999999999998</v>
       </c>
       <c r="F53" s="22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10.825317547305485</v>
       </c>
       <c r="G53" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.2499999999999991</v>
       </c>
       <c r="H53" s="22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="22">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="I53" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="L53" s="33">
         <v>7</v>
       </c>
       <c r="M53" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N53" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>50.341469620859044</v>
       </c>
       <c r="O53" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3902455737138109E-2</v>
       </c>
       <c r="P53" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>71.929738091426941</v>
       </c>
       <c r="Q53" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.5964869045713472</v>
       </c>
       <c r="S53" s="47">
@@ -4455,23 +4455,23 @@
         <v>8</v>
       </c>
       <c r="M54" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N54" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>55.067103588277845</v>
       </c>
       <c r="O54" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5872679944714863E-2</v>
       </c>
       <c r="P54" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>63.001333327644566</v>
       </c>
       <c r="Q54" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.1500666663822283</v>
       </c>
       <c r="S54" s="35">
@@ -4488,23 +4488,23 @@
         <v>9</v>
       </c>
       <c r="M55" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N55" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>59.343034025940092</v>
       </c>
       <c r="O55" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7838967641699233E-2</v>
       </c>
       <c r="P55" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>56.057055547455775</v>
       </c>
       <c r="Q55" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.8028527773727889</v>
       </c>
       <c r="S55" s="37">
@@ -4539,23 +4539,23 @@
         <v>10</v>
       </c>
       <c r="M56" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N56" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>63.212055882855765</v>
       </c>
       <c r="O56" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9801326693244747E-2</v>
       </c>
       <c r="P56" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>50.501666655555532</v>
       </c>
       <c r="Q56" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.5250833327777764</v>
       </c>
     </row>
@@ -4591,23 +4591,23 @@
         <v>11</v>
       </c>
       <c r="M57" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N57" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>66.712891630192047</v>
       </c>
       <c r="O57" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.175976494878995E-2</v>
       </c>
       <c r="P57" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>45.95637877309008</v>
       </c>
       <c r="Q57" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.2978189386545038</v>
       </c>
       <c r="R57" s="2"/>
@@ -4644,23 +4644,23 @@
         <v>12</v>
       </c>
       <c r="M58" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N58" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>69.880578808779774</v>
       </c>
       <c r="O58" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3714290242090708E-2</v>
       </c>
       <c r="P58" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>42.168666647466893</v>
       </c>
       <c r="Q58" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.1084333323733446</v>
       </c>
     </row>
@@ -4696,23 +4696,23 @@
         <v>13</v>
       </c>
       <c r="M59" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N59" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>72.746820696598746</v>
       </c>
       <c r="O59" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5664910391250628E-2</v>
       </c>
       <c r="P59" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>38.963705103794474</v>
       </c>
       <c r="Q59" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.9481852551897236</v>
       </c>
     </row>
@@ -4748,23 +4748,23 @@
         <v>14</v>
       </c>
       <c r="M60" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N60" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>75.340303605839352</v>
       </c>
       <c r="O60" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7611633198753149E-2</v>
       </c>
       <c r="P60" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.216619017130675</v>
       </c>
       <c r="Q60" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.8108309508565337</v>
       </c>
     </row>
@@ -4800,23 +4800,23 @@
         <v>15</v>
       </c>
       <c r="M61" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N61" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>77.686983985157028</v>
       </c>
       <c r="O61" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9554466451491845E-2</v>
       </c>
       <c r="P61" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.835833295834114</v>
       </c>
       <c r="Q61" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6917916647917057</v>
       </c>
     </row>
@@ -4834,11 +4834,11 @@
         <v>7</v>
       </c>
       <c r="F62" s="31" t="b">
-        <f t="shared" ref="F62:F67" si="17">OR(F$61&lt;=VLOOKUP($E62,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
+        <f t="shared" ref="F62:F67" si="18">OR(F$61&lt;=VLOOKUP($E62,$A$6:$C$11,2,FALSE),F$61&gt;MAX($B$6:$B$11))</f>
         <v>0</v>
       </c>
       <c r="G62" s="31" t="b">
-        <f t="shared" ref="G62:G67" si="18">OR(G$61&lt;=VLOOKUP($E62,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
+        <f t="shared" ref="G62:G67" si="19">OR(G$61&lt;=VLOOKUP($E62,$A$6:$C$11,2,FALSE),$G$61&gt;MAX($B$6:$B$11))</f>
         <v>0</v>
       </c>
       <c r="I62" s="17" t="s">
@@ -4852,23 +4852,23 @@
         <v>16</v>
       </c>
       <c r="M62" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N62" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>79.810348200534463</v>
       </c>
       <c r="O62" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1493417920802402E-2</v>
       </c>
       <c r="P62" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>31.752666621156678</v>
       </c>
       <c r="Q62" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5876333310578339</v>
       </c>
     </row>
@@ -4886,11 +4886,11 @@
         <v>5</v>
       </c>
       <c r="F63" s="31" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G63" s="31" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I63" s="17" t="s">
@@ -4904,23 +4904,23 @@
         <v>17</v>
       </c>
       <c r="M63" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N63" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>81.731647594726525</v>
       </c>
       <c r="O63" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3428495362493371E-2</v>
       </c>
       <c r="P63" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>29.91459798462828</v>
       </c>
       <c r="Q63" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.4957298992314141</v>
       </c>
       <c r="X63"/>
@@ -4939,11 +4939,11 @@
         <v>2</v>
       </c>
       <c r="F64" s="31" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G64" s="31" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
@@ -4952,23 +4952,23 @@
         <v>18</v>
       </c>
       <c r="M64" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N64" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>83.470111177841346</v>
       </c>
       <c r="O64" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5359706516876921E-2</v>
       </c>
       <c r="P64" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>28.280777712979816</v>
       </c>
       <c r="Q64" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.4140388856489907</v>
       </c>
       <c r="X64"/>
@@ -4987,11 +4987,11 @@
         <v>6</v>
       </c>
       <c r="F65" s="31" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G65" s="31" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I65" s="2"/>
@@ -5000,23 +5000,23 @@
         <v>19</v>
       </c>
       <c r="M65" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N65" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>85.043138077736486</v>
       </c>
       <c r="O65" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.728705910880048E-2</v>
       </c>
       <c r="P65" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>26.81895606414238</v>
       </c>
       <c r="Q65" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.3409478032071189</v>
       </c>
       <c r="X65"/>
@@ -5035,11 +5035,11 @@
         <v>4</v>
       </c>
       <c r="F66" s="31" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G66" s="31" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I66" s="2"/>
@@ -5048,23 +5048,23 @@
         <v>20</v>
       </c>
       <c r="M66" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N66" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>86.466471676338728</v>
       </c>
       <c r="O66" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9210560847676823E-2</v>
       </c>
       <c r="P66" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>25.503333244447809</v>
       </c>
       <c r="Q66" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.2751666622223905</v>
       </c>
       <c r="X66"/>
@@ -5083,11 +5083,11 @@
         <v>3</v>
       </c>
       <c r="F67" s="31" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G67" s="31" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="I67" s="2"/>
@@ -5096,23 +5096,23 @@
         <v>21</v>
       </c>
       <c r="M67" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N67" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>87.754357174701809</v>
       </c>
       <c r="O67" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.1130219427515491E-2</v>
       </c>
       <c r="P67" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>24.313023706628105</v>
       </c>
       <c r="Q67" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.2156511853314051</v>
       </c>
       <c r="X67"/>
@@ -5144,23 +5144,23 @@
         <v>22</v>
       </c>
       <c r="M68" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N68" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>88.919684163766604</v>
       </c>
       <c r="O68" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3046042526953321E-2</v>
       </c>
       <c r="P68" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>23.230939275633737</v>
       </c>
       <c r="Q68" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.1615469637816869</v>
       </c>
       <c r="X68"/>
@@ -5192,23 +5192,23 @@
         <v>23</v>
       </c>
       <c r="M69" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N69" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>89.974115627719613</v>
       </c>
       <c r="O69" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4958037809285312E-2</v>
       </c>
       <c r="P69" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22.24296363293389</v>
       </c>
       <c r="Q69" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.1121481816466945</v>
       </c>
     </row>
@@ -5237,23 +5237,23 @@
         <v>24</v>
       </c>
       <c r="M70" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N70" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>90.928204671058751</v>
       </c>
       <c r="O70" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6866212922495265E-2</v>
       </c>
       <c r="P70" s="35">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>21.337333179741755</v>
       </c>
       <c r="Q70" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0668666589870877</v>
       </c>
     </row>
@@ -5273,15 +5273,15 @@
         <v>25</v>
       </c>
       <c r="M71" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="N71" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>91.791500137610115</v>
       </c>
       <c r="O71" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8770575499285984E-2</v>
       </c>
       <c r="P71" s="37">
@@ -5289,7 +5289,7 @@
         <v>20.504166493065892</v>
       </c>
       <c r="Q71" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0252083246532946</v>
       </c>
     </row>
@@ -5366,13 +5366,8 @@
     </row>
     <row r="77" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="18">
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="A69:A70"/>
@@ -5386,6 +5381,11 @@
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A65:A66"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F11">
